--- a/Lists/Exercise_list.xlsx
+++ b/Lists/Exercise_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articulo metodologia matlab code LTPAQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articulo metodologia matlab code LTPAQ\LTPAQ_MATLAB_code\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31028176-DD05-4411-A3F1-264D9AAE7AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89128840-1722-4D42-9313-39A0C23FC349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,18 +845,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -917,17 +911,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,7 +1205,7 @@
   <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,20 +1213,20 @@
     <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.88671875" customWidth="1"/>
     <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1243,10 +1237,8 @@
       <c r="B2" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="1"/>
+      <c r="D2" s="5">
         <v>7.3</v>
       </c>
     </row>
@@ -1257,10 +1249,7 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1271,10 +1260,7 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1285,10 +1271,7 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>7.5</v>
       </c>
     </row>
@@ -1299,10 +1282,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>9.5</v>
       </c>
     </row>
@@ -1313,7 +1293,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>5.5</v>
       </c>
     </row>
@@ -1324,7 +1304,7 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4.3</v>
       </c>
     </row>
@@ -1338,7 +1318,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -1352,7 +1332,7 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3.3</v>
       </c>
     </row>
@@ -1366,7 +1346,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -1377,7 +1357,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1388,7 +1368,7 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>5.5</v>
       </c>
     </row>
@@ -1399,7 +1379,7 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1410,7 +1390,7 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1421,7 +1401,7 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1432,7 +1412,7 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>4.5</v>
       </c>
     </row>
@@ -1443,7 +1423,7 @@
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>7.8</v>
       </c>
     </row>
@@ -1454,7 +1434,7 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>8.5</v>
       </c>
     </row>
@@ -1465,7 +1445,7 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>7.5</v>
       </c>
     </row>
@@ -1479,7 +1459,7 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1493,7 +1473,7 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1507,7 +1487,7 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1521,7 +1501,7 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1535,7 +1515,7 @@
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -1549,7 +1529,7 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1560,7 +1540,7 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>8.5</v>
       </c>
     </row>
@@ -1571,7 +1551,7 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -1582,7 +1562,7 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -1593,7 +1573,7 @@
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1604,7 +1584,7 @@
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1615,7 +1595,7 @@
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>12.8</v>
       </c>
     </row>
@@ -1626,7 +1606,7 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>5.5</v>
       </c>
     </row>
@@ -1637,7 +1617,7 @@
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>7.8</v>
       </c>
     </row>
@@ -1651,7 +1631,7 @@
       <c r="C35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -1662,10 +1642,10 @@
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6">
+      <c r="C36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1676,7 +1656,7 @@
       <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -1687,7 +1667,7 @@
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -1698,7 +1678,7 @@
       <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1709,7 +1689,7 @@
       <c r="B40" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>12</v>
       </c>
     </row>
@@ -1720,7 +1700,7 @@
       <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>5.8</v>
       </c>
     </row>
@@ -1731,7 +1711,7 @@
       <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1742,7 +1722,7 @@
       <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1756,7 +1736,7 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1770,7 +1750,7 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1784,7 +1764,7 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1798,7 +1778,7 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1809,7 +1789,7 @@
       <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>4.8</v>
       </c>
     </row>
@@ -1820,7 +1800,7 @@
       <c r="B49" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>3.3</v>
       </c>
     </row>
@@ -1831,7 +1811,7 @@
       <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1842,7 +1822,7 @@
       <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -1853,7 +1833,7 @@
       <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>4.5</v>
       </c>
     </row>
@@ -1864,7 +1844,7 @@
       <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1875,7 +1855,7 @@
       <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>7.8</v>
       </c>
     </row>
@@ -1886,7 +1866,7 @@
       <c r="B55" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1897,7 +1877,7 @@
       <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -1908,7 +1888,7 @@
       <c r="B57" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1919,7 +1899,7 @@
       <c r="B58" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1930,7 +1910,7 @@
       <c r="B59" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1941,7 +1921,7 @@
       <c r="B60" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1952,7 +1932,7 @@
       <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1963,7 +1943,7 @@
       <c r="B62" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -1974,7 +1954,7 @@
       <c r="B63" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1985,7 +1965,7 @@
       <c r="B64" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1996,7 +1976,7 @@
       <c r="B65" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2007,7 +1987,7 @@
       <c r="B66" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2018,7 +1998,7 @@
       <c r="B67" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2029,7 +2009,7 @@
       <c r="B68" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>4.8</v>
       </c>
     </row>
@@ -2040,7 +2020,7 @@
       <c r="B69" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>4.3</v>
       </c>
     </row>
@@ -2051,7 +2031,7 @@
       <c r="B70" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>5.3</v>
       </c>
     </row>
@@ -2062,7 +2042,7 @@
       <c r="B71" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2073,7 +2053,7 @@
       <c r="B72" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -2084,7 +2064,7 @@
       <c r="B73" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>3.8</v>
       </c>
     </row>
@@ -2095,7 +2075,7 @@
       <c r="B74" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>5.5</v>
       </c>
     </row>
@@ -2106,7 +2086,7 @@
       <c r="B75" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>12</v>
       </c>
     </row>
@@ -2117,7 +2097,7 @@
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -2128,7 +2108,7 @@
       <c r="B77" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2139,7 +2119,7 @@
       <c r="B78" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>5.3</v>
       </c>
     </row>
@@ -2150,7 +2130,7 @@
       <c r="B79" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>7.8</v>
       </c>
     </row>
@@ -2161,7 +2141,7 @@
       <c r="B80" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>7.8</v>
       </c>
     </row>
@@ -2172,7 +2152,7 @@
       <c r="B81" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2186,7 +2166,7 @@
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>5.5</v>
       </c>
     </row>
@@ -2200,7 +2180,7 @@
       <c r="C83">
         <v>3</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>5.8</v>
       </c>
     </row>
@@ -2214,7 +2194,7 @@
       <c r="C84">
         <v>4</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>7.3</v>
       </c>
     </row>
@@ -2228,7 +2208,7 @@
       <c r="C85">
         <v>2</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -2242,7 +2222,7 @@
       <c r="C86">
         <v>3</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>5</v>
       </c>
     </row>
@@ -2256,7 +2236,7 @@
       <c r="C87">
         <v>4</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2267,10 +2247,7 @@
       <c r="B88" t="s">
         <v>83</v>
       </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2281,10 +2258,7 @@
       <c r="B89" t="s">
         <v>84</v>
       </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2295,7 +2269,7 @@
       <c r="B90" t="s">
         <v>247</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>10.3</v>
       </c>
     </row>
@@ -2306,7 +2280,7 @@
       <c r="B91" t="s">
         <v>85</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>5</v>
       </c>
     </row>
@@ -2317,7 +2291,7 @@
       <c r="B92" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -2328,7 +2302,7 @@
       <c r="B93" t="s">
         <v>207</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2339,7 +2313,7 @@
       <c r="B94" t="s">
         <v>87</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2350,7 +2324,7 @@
       <c r="B95" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -2361,7 +2335,7 @@
       <c r="B96" t="s">
         <v>89</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="5">
         <v>4</v>
       </c>
     </row>
@@ -2372,7 +2346,7 @@
       <c r="B97" t="s">
         <v>90</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="5">
         <v>2.8</v>
       </c>
     </row>
@@ -2383,7 +2357,7 @@
       <c r="B98" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="5">
         <v>9</v>
       </c>
     </row>
@@ -2394,7 +2368,7 @@
       <c r="B99" t="s">
         <v>92</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2405,7 +2379,7 @@
       <c r="B100" t="s">
         <v>93</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2416,7 +2390,7 @@
       <c r="B101" t="s">
         <v>94</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2427,7 +2401,7 @@
       <c r="B102" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2438,7 +2412,7 @@
       <c r="B103" t="s">
         <v>96</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2449,7 +2423,7 @@
       <c r="B104" t="s">
         <v>97</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -2460,7 +2434,7 @@
       <c r="B105" t="s">
         <v>98</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2471,7 +2445,7 @@
       <c r="B106" t="s">
         <v>99</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2482,7 +2456,7 @@
       <c r="B107" t="s">
         <v>100</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2493,7 +2467,7 @@
       <c r="B108" t="s">
         <v>101</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="5">
         <v>5</v>
       </c>
     </row>
@@ -2504,7 +2478,10 @@
       <c r="B109" t="s">
         <v>102</v>
       </c>
-      <c r="D109" s="6">
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109" s="5">
         <v>7.5</v>
       </c>
     </row>
@@ -2515,7 +2492,7 @@
       <c r="B110" t="s">
         <v>103</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="5">
         <v>11.8</v>
       </c>
     </row>
@@ -2529,7 +2506,7 @@
       <c r="C111">
         <v>3</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2543,7 +2520,7 @@
       <c r="C112">
         <v>2</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="5">
         <v>4.8</v>
       </c>
     </row>
@@ -2557,7 +2534,7 @@
       <c r="C113">
         <v>4</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="5">
         <v>8.5</v>
       </c>
     </row>
@@ -2565,10 +2542,11 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="6">
+      <c r="C114" s="6"/>
+      <c r="D114" s="7">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -2576,13 +2554,11 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115" s="7">
+      <c r="C115" s="6"/>
+      <c r="D115" s="8">
         <f>AVERAGE(8.3,8,9,9,9.8)</f>
         <v>8.8199999999999985</v>
       </c>
@@ -2591,13 +2567,11 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C116">
-        <v>3</v>
-      </c>
-      <c r="D116" s="7">
+      <c r="C116" s="6"/>
+      <c r="D116" s="8">
         <f>AVERAGE(10.05,11.5,12.3)</f>
         <v>11.283333333333333</v>
       </c>
@@ -2606,13 +2580,11 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-      <c r="D117" s="7">
+      <c r="C117" s="6"/>
+      <c r="D117" s="8">
         <f>AVERAGE(14.5,15)</f>
         <v>14.75</v>
       </c>
@@ -2621,10 +2593,11 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="6">
+      <c r="C118" s="6"/>
+      <c r="D118" s="7">
         <v>3</v>
       </c>
     </row>
@@ -2635,7 +2608,7 @@
       <c r="B119" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="5">
         <v>4.5</v>
       </c>
     </row>
@@ -2646,7 +2619,7 @@
       <c r="B120" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2657,7 +2630,7 @@
       <c r="B121" t="s">
         <v>209</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2668,7 +2641,7 @@
       <c r="B122" t="s">
         <v>113</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="5">
         <v>5</v>
       </c>
     </row>
@@ -2682,7 +2655,7 @@
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="5">
         <v>5.5</v>
       </c>
     </row>
@@ -2696,7 +2669,7 @@
       <c r="C124">
         <v>3</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2710,7 +2683,7 @@
       <c r="C125">
         <v>4</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="5">
         <v>9</v>
       </c>
     </row>
@@ -2721,7 +2694,7 @@
       <c r="B126" t="s">
         <v>117</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="5">
         <v>13.3</v>
       </c>
     </row>
@@ -2735,7 +2708,7 @@
       <c r="C127" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2746,7 +2719,7 @@
       <c r="B128" t="s">
         <v>119</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2760,7 +2733,7 @@
       <c r="C129">
         <v>2</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="5">
         <v>6.8</v>
       </c>
     </row>
@@ -2774,7 +2747,7 @@
       <c r="C130">
         <v>3</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="5">
         <v>9</v>
       </c>
     </row>
@@ -2788,7 +2761,7 @@
       <c r="C131">
         <v>4</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="5">
         <v>12.5</v>
       </c>
     </row>
@@ -2799,7 +2772,7 @@
       <c r="B132" t="s">
         <v>123</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2813,7 +2786,7 @@
       <c r="C133">
         <v>2</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="5">
         <v>4.3</v>
       </c>
     </row>
@@ -2827,7 +2800,7 @@
       <c r="C134">
         <v>3</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="5">
         <v>5.3</v>
       </c>
     </row>
@@ -2841,7 +2814,7 @@
       <c r="C135">
         <v>4</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2852,7 +2825,7 @@
       <c r="B136" t="s">
         <v>210</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2863,7 +2836,7 @@
       <c r="B137" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -2874,7 +2847,7 @@
       <c r="B138" t="s">
         <v>128</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="5">
         <v>5</v>
       </c>
     </row>
@@ -2885,7 +2858,7 @@
       <c r="B139" t="s">
         <v>129</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2896,7 +2869,7 @@
       <c r="B140" t="s">
         <v>130</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="5">
         <v>7</v>
       </c>
     </row>
@@ -2907,7 +2880,7 @@
       <c r="B141" t="s">
         <v>131</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="5">
         <v>5</v>
       </c>
     </row>
@@ -2918,7 +2891,7 @@
       <c r="B142" t="s">
         <v>211</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="5">
         <v>4</v>
       </c>
     </row>
@@ -2929,7 +2902,7 @@
       <c r="B143" t="s">
         <v>212</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="5">
         <v>6</v>
       </c>
     </row>
@@ -2940,7 +2913,7 @@
       <c r="B144" t="s">
         <v>132</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="5">
         <v>12</v>
       </c>
     </row>
@@ -2954,7 +2927,7 @@
       <c r="C145" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="5">
         <v>9</v>
       </c>
     </row>
@@ -2965,7 +2938,7 @@
       <c r="B146" t="s">
         <v>134</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2976,7 +2949,7 @@
       <c r="B147" t="s">
         <v>135</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2990,7 +2963,7 @@
       <c r="C148">
         <v>2</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3004,7 +2977,7 @@
       <c r="C149">
         <v>3</v>
       </c>
-      <c r="D149" s="6">
+      <c r="D149" s="5">
         <v>5.8</v>
       </c>
     </row>
@@ -3018,7 +2991,7 @@
       <c r="C150">
         <v>4</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="5">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -3029,7 +3002,7 @@
       <c r="B151" t="s">
         <v>139</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="5">
         <v>8</v>
       </c>
     </row>
@@ -3040,7 +3013,7 @@
       <c r="B152" t="s">
         <v>140</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="5">
         <v>13.8</v>
       </c>
     </row>
@@ -3051,7 +3024,7 @@
       <c r="B153" t="s">
         <v>141</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="5">
         <v>10.3</v>
       </c>
     </row>
@@ -3062,7 +3035,7 @@
       <c r="B154" t="s">
         <v>142</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3073,7 +3046,7 @@
       <c r="B155" t="s">
         <v>143</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3084,7 +3057,7 @@
       <c r="B156" t="s">
         <v>144</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="5">
         <v>7.3</v>
       </c>
     </row>
@@ -3095,7 +3068,7 @@
       <c r="B157" t="s">
         <v>145</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3106,7 +3079,7 @@
       <c r="B158" t="s">
         <v>146</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="5">
         <v>8</v>
       </c>
     </row>
@@ -3117,7 +3090,7 @@
       <c r="B159" t="s">
         <v>147</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3128,7 +3101,7 @@
       <c r="B160" t="s">
         <v>148</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3139,7 +3112,7 @@
       <c r="B161" t="s">
         <v>215</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="5">
         <v>10</v>
       </c>
     </row>
@@ -3150,7 +3123,7 @@
       <c r="B162" t="s">
         <v>149</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -3164,7 +3137,7 @@
       <c r="C163">
         <v>2</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -3178,7 +3151,7 @@
       <c r="C164">
         <v>3</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="5">
         <v>3.8</v>
       </c>
     </row>
@@ -3192,7 +3165,7 @@
       <c r="C165">
         <v>4</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="5">
         <v>7.2</v>
       </c>
     </row>
@@ -3206,7 +3179,7 @@
       <c r="C166">
         <v>2</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="5">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -3220,7 +3193,7 @@
       <c r="C167">
         <v>3</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3234,7 +3207,7 @@
       <c r="C168">
         <v>4</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3248,7 +3221,7 @@
       <c r="C169">
         <v>4</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3262,7 +3235,7 @@
       <c r="C170" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3273,7 +3246,7 @@
       <c r="B171" t="s">
         <v>158</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="5">
         <v>8</v>
       </c>
     </row>
@@ -3281,13 +3254,13 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="6">
         <v>2</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="7">
         <v>2.8</v>
       </c>
     </row>
@@ -3295,13 +3268,13 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="6">
         <v>3</v>
       </c>
-      <c r="D173" s="8">
+      <c r="D173" s="7">
         <v>3</v>
       </c>
     </row>
@@ -3309,13 +3282,13 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="6">
         <v>4</v>
       </c>
-      <c r="D174" s="8">
+      <c r="D174" s="7">
         <v>4.3</v>
       </c>
     </row>
@@ -3326,7 +3299,7 @@
       <c r="B175" t="s">
         <v>160</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="5">
         <v>10</v>
       </c>
     </row>
@@ -3337,7 +3310,7 @@
       <c r="B176" t="s">
         <v>161</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="5">
         <v>3</v>
       </c>
     </row>
@@ -3348,7 +3321,7 @@
       <c r="B177" t="s">
         <v>162</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3362,7 +3335,7 @@
       <c r="C178" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="5">
         <v>5</v>
       </c>
     </row>
@@ -3376,7 +3349,7 @@
       <c r="C179">
         <v>4</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3387,7 +3360,7 @@
       <c r="B180" t="s">
         <v>165</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="5">
         <v>5</v>
       </c>
     </row>
@@ -3398,7 +3371,7 @@
       <c r="B181" t="s">
         <v>166</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3409,7 +3382,7 @@
       <c r="B182" t="s">
         <v>167</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -3420,7 +3393,7 @@
       <c r="B183" t="s">
         <v>168</v>
       </c>
-      <c r="D183" s="6">
+      <c r="D183" s="5">
         <v>4</v>
       </c>
     </row>
@@ -3431,7 +3404,7 @@
       <c r="B184" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="6">
+      <c r="D184" s="5">
         <v>6.5</v>
       </c>
     </row>
@@ -3442,7 +3415,7 @@
       <c r="B185" t="s">
         <v>170</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D185" s="5">
         <v>7.3</v>
       </c>
     </row>
@@ -3456,7 +3429,7 @@
       <c r="C186" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="5">
         <v>6.2</v>
       </c>
     </row>
@@ -3470,7 +3443,7 @@
       <c r="C187">
         <v>4</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="5">
         <v>6.5</v>
       </c>
     </row>
@@ -3484,7 +3457,7 @@
       <c r="C188" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="5">
         <v>6.5</v>
       </c>
     </row>
@@ -3498,7 +3471,7 @@
       <c r="C189">
         <v>4</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="5">
         <v>6.8</v>
       </c>
     </row>
@@ -3509,7 +3482,7 @@
       <c r="B190" t="s">
         <v>218</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D190" s="5">
         <v>7</v>
       </c>
     </row>
@@ -3520,7 +3493,7 @@
       <c r="B191" t="s">
         <v>217</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D191" s="5">
         <v>2.7</v>
       </c>
     </row>
@@ -3534,7 +3507,7 @@
       <c r="C192">
         <v>2</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D192" s="5">
         <v>9</v>
       </c>
     </row>
@@ -3548,7 +3521,7 @@
       <c r="C193">
         <v>3</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D193" s="5">
         <v>9.6</v>
       </c>
     </row>
@@ -3562,7 +3535,7 @@
       <c r="C194">
         <v>4</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D194" s="5">
         <v>10.3</v>
       </c>
     </row>
@@ -3573,7 +3546,7 @@
       <c r="B195" t="s">
         <v>219</v>
       </c>
-      <c r="D195" s="6">
+      <c r="D195" s="5">
         <v>6.3</v>
       </c>
     </row>
@@ -3584,7 +3557,7 @@
       <c r="B196" t="s">
         <v>221</v>
       </c>
-      <c r="D196" s="6">
+      <c r="D196" s="5">
         <v>7.1</v>
       </c>
     </row>
@@ -3595,7 +3568,7 @@
       <c r="B197" t="s">
         <v>220</v>
       </c>
-      <c r="D197" s="6">
+      <c r="D197" s="5">
         <v>4.3</v>
       </c>
     </row>
@@ -3606,7 +3579,7 @@
       <c r="B198" t="s">
         <v>222</v>
       </c>
-      <c r="D198" s="6">
+      <c r="D198" s="5">
         <v>5.6</v>
       </c>
     </row>
@@ -3617,7 +3590,7 @@
       <c r="B199" t="s">
         <v>223</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D199" s="5">
         <v>5.3</v>
       </c>
     </row>
@@ -3628,7 +3601,7 @@
       <c r="B200" t="s">
         <v>224</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D200" s="5">
         <v>5.9</v>
       </c>
     </row>
@@ -3639,7 +3612,7 @@
       <c r="B201" t="s">
         <v>225</v>
       </c>
-      <c r="D201" s="6">
+      <c r="D201" s="5">
         <v>5.6</v>
       </c>
     </row>
@@ -3650,7 +3623,7 @@
       <c r="B202" t="s">
         <v>226</v>
       </c>
-      <c r="D202" s="6">
+      <c r="D202" s="5">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -3661,7 +3634,7 @@
       <c r="B203" t="s">
         <v>227</v>
       </c>
-      <c r="D203" s="6">
+      <c r="D203" s="5">
         <v>4.2</v>
       </c>
     </row>
@@ -3672,7 +3645,7 @@
       <c r="B204" t="s">
         <v>228</v>
       </c>
-      <c r="D204" s="6">
+      <c r="D204" s="5">
         <v>6.4</v>
       </c>
     </row>
@@ -3683,7 +3656,7 @@
       <c r="B205" t="s">
         <v>246</v>
       </c>
-      <c r="D205" s="6">
+      <c r="D205" s="5">
         <v>5.9</v>
       </c>
     </row>
@@ -3694,7 +3667,7 @@
       <c r="B206" t="s">
         <v>229</v>
       </c>
-      <c r="D206" s="6">
+      <c r="D206" s="5">
         <v>5.2</v>
       </c>
     </row>
@@ -3708,7 +3681,7 @@
       <c r="C207">
         <v>2</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D207" s="5">
         <v>7.4</v>
       </c>
     </row>
@@ -3722,7 +3695,7 @@
       <c r="C208">
         <v>3</v>
       </c>
-      <c r="D208" s="6">
+      <c r="D208" s="5">
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -3736,7 +3709,7 @@
       <c r="C209">
         <v>4</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D209" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3747,7 +3720,7 @@
       <c r="B210" t="s">
         <v>240</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D210" s="5">
         <v>3.7</v>
       </c>
     </row>
@@ -3758,7 +3731,7 @@
       <c r="B211" t="s">
         <v>242</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D211" s="5">
         <v>4.8</v>
       </c>
     </row>
@@ -3769,10 +3742,7 @@
       <c r="B212" t="s">
         <v>243</v>
       </c>
-      <c r="C212">
-        <v>4</v>
-      </c>
-      <c r="D212" s="6">
+      <c r="D212" s="5">
         <v>6</v>
       </c>
     </row>
@@ -3783,10 +3753,7 @@
       <c r="B213" t="s">
         <v>244</v>
       </c>
-      <c r="C213">
-        <v>3</v>
-      </c>
-      <c r="D213" s="6">
+      <c r="D213" s="5">
         <v>5</v>
       </c>
     </row>
@@ -3797,10 +3764,7 @@
       <c r="B214" t="s">
         <v>245</v>
       </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-      <c r="D214" s="6">
+      <c r="D214" s="5">
         <v>3.5</v>
       </c>
     </row>
@@ -3811,7 +3775,7 @@
       <c r="B215" t="s">
         <v>248</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D215" s="5">
         <v>5.3</v>
       </c>
     </row>
@@ -3836,7 +3800,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>216</v>
       </c>
     </row>

--- a/Lists/Exercise_list.xlsx
+++ b/Lists/Exercise_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coral\Documents\Universidad_2\Articulos\1. Articulo metodologia matlab code LTPAQ\LTPAQ_MATLAB_code\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E3ACE7-27F0-42CF-8C9B-5437432D7864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC097F71-E93B-435C-BBCB-D6A5AA6062AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2109,7 +2109,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2119,6 +2119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,7 +2170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2174,6 +2180,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2456,19 +2466,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C675"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2479,7 +2489,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1003</v>
       </c>
       <c r="B2" t="s">
@@ -2490,7 +2500,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>1004</v>
       </c>
       <c r="B3" t="s">
@@ -2501,7 +2511,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>1008</v>
       </c>
       <c r="B4" t="s">
@@ -2512,7 +2522,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>1009</v>
       </c>
       <c r="B5" t="s">
@@ -2523,7 +2533,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>1010</v>
       </c>
       <c r="B6" t="s">
@@ -2534,7 +2544,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>1011</v>
       </c>
       <c r="B7" t="s">
@@ -2545,7 +2555,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>1013</v>
       </c>
       <c r="B8" t="s">
@@ -2556,7 +2566,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>1014</v>
       </c>
       <c r="B9" t="s">
@@ -2567,7 +2577,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>1015</v>
       </c>
       <c r="B10" t="s">
@@ -2578,7 +2588,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>1016</v>
       </c>
       <c r="B11" t="s">
@@ -2589,7 +2599,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>1017</v>
       </c>
       <c r="B12" t="s">
@@ -2600,7 +2610,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>1018</v>
       </c>
       <c r="B13" t="s">
@@ -2611,7 +2621,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>1019</v>
       </c>
       <c r="B14" t="s">
@@ -2622,7 +2632,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>1020</v>
       </c>
       <c r="B15" t="s">
@@ -2633,7 +2643,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>1030</v>
       </c>
       <c r="B16" t="s">
@@ -2644,7 +2654,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>1040</v>
       </c>
       <c r="B17" t="s">
@@ -2655,7 +2665,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>1050</v>
       </c>
       <c r="B18" t="s">
@@ -2666,7 +2676,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>1060</v>
       </c>
       <c r="B19" t="s">
@@ -2677,7 +2687,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>1065</v>
       </c>
       <c r="B20" t="s">
@@ -2688,7 +2698,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>1066</v>
       </c>
       <c r="B21" t="s">
@@ -2699,7 +2709,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>1070</v>
       </c>
       <c r="B22" t="s">
@@ -2710,7 +2720,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>1080</v>
       </c>
       <c r="B23" t="s">
@@ -2721,7 +2731,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>1084</v>
       </c>
       <c r="B24" t="s">
@@ -2732,7 +2742,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>1088</v>
       </c>
       <c r="B25" t="s">
@@ -2743,7 +2753,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>1200</v>
       </c>
       <c r="B26" t="s">
@@ -2754,7 +2764,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>1210</v>
       </c>
       <c r="B27" t="s">
@@ -2765,7 +2775,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>1214</v>
       </c>
       <c r="B28" t="s">
@@ -2776,7 +2786,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>1216</v>
       </c>
       <c r="B29" t="s">
@@ -2787,7 +2797,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>1218</v>
       </c>
       <c r="B30" t="s">
@@ -2798,7 +2808,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>1220</v>
       </c>
       <c r="B31" t="s">
@@ -2809,7 +2819,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>1224</v>
       </c>
       <c r="B32" t="s">
@@ -2820,7 +2830,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>1228</v>
       </c>
       <c r="B33" t="s">
@@ -2831,7 +2841,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>1232</v>
       </c>
       <c r="B34" t="s">
@@ -2842,7 +2852,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>1236</v>
       </c>
       <c r="B35" t="s">
@@ -2853,7 +2863,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>1240</v>
       </c>
       <c r="B36" t="s">
@@ -2864,7 +2874,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="5">
         <v>1244</v>
       </c>
       <c r="B37" t="s">
@@ -2875,7 +2885,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="5">
         <v>1248</v>
       </c>
       <c r="B38" t="s">
@@ -2886,7 +2896,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>1252</v>
       </c>
       <c r="B39" t="s">
@@ -2897,7 +2907,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="5">
         <v>1254</v>
       </c>
       <c r="B40" t="s">
@@ -2908,7 +2918,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="5">
         <v>1262</v>
       </c>
       <c r="B41" t="s">
@@ -2919,7 +2929,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="5">
         <v>1264</v>
       </c>
       <c r="B42" t="s">
@@ -2930,7 +2940,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="5">
         <v>1270</v>
       </c>
       <c r="B43" t="s">
@@ -2941,7 +2951,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="5">
         <v>1290</v>
       </c>
       <c r="B44" t="s">
@@ -2952,7 +2962,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="5">
         <v>1305</v>
       </c>
       <c r="B45" t="s">
@@ -2963,7 +2973,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="5">
         <v>2000</v>
       </c>
       <c r="B46" t="s">
@@ -2974,7 +2984,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="5">
         <v>2001</v>
       </c>
       <c r="B47" t="s">
@@ -2985,7 +2995,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="5">
         <v>2002</v>
       </c>
       <c r="B48" t="s">
@@ -2996,7 +3006,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="5">
         <v>2003</v>
       </c>
       <c r="B49" t="s">
@@ -3007,7 +3017,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="5">
         <v>2004</v>
       </c>
       <c r="B50" t="s">
@@ -3018,7 +3028,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="5">
         <v>2005</v>
       </c>
       <c r="B51" t="s">
@@ -3029,7 +3039,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="5">
         <v>2006</v>
       </c>
       <c r="B52" t="s">
@@ -3040,7 +3050,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="5">
         <v>2007</v>
       </c>
       <c r="B53" t="s">
@@ -3051,7 +3061,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="5">
         <v>2008</v>
       </c>
       <c r="B54" t="s">
@@ -3062,7 +3072,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="5">
         <v>2020</v>
       </c>
       <c r="B55" t="s">
@@ -3073,7 +3083,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="5">
         <v>2022</v>
       </c>
       <c r="B56" t="s">
@@ -3084,7 +3094,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="5">
         <v>2024</v>
       </c>
       <c r="B57" t="s">
@@ -3095,7 +3105,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="5">
         <v>2030</v>
       </c>
       <c r="B58" t="s">
@@ -3106,7 +3116,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="5">
         <v>2032</v>
       </c>
       <c r="B59" t="s">
@@ -3117,7 +3127,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="5">
         <v>2034</v>
       </c>
       <c r="B60" t="s">
@@ -3128,7 +3138,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="5">
         <v>2035</v>
       </c>
       <c r="B61" t="s">
@@ -3139,7 +3149,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="5">
         <v>2040</v>
       </c>
       <c r="B62" t="s">
@@ -3150,7 +3160,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="5">
         <v>2045</v>
       </c>
       <c r="B63" t="s">
@@ -3161,7 +3171,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="5">
         <v>2048</v>
       </c>
       <c r="B64" t="s">
@@ -3172,7 +3182,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="5">
         <v>2049</v>
       </c>
       <c r="B65" t="s">
@@ -3183,7 +3193,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="5">
         <v>2050</v>
       </c>
       <c r="B66" t="s">
@@ -3194,7 +3204,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="5">
         <v>2052</v>
       </c>
       <c r="B67" t="s">
@@ -3205,7 +3215,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="5">
         <v>2054</v>
       </c>
       <c r="B68" t="s">
@@ -3216,7 +3226,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="5">
         <v>2055</v>
       </c>
       <c r="B69" t="s">
@@ -3227,7 +3237,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="5">
         <v>2056</v>
       </c>
       <c r="B70" t="s">
@@ -3238,7 +3248,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="5">
         <v>2057</v>
       </c>
       <c r="B71" t="s">
@@ -3249,7 +3259,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="5">
         <v>2058</v>
       </c>
       <c r="B72" t="s">
@@ -3260,7 +3270,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="5">
         <v>2060</v>
       </c>
       <c r="B73" t="s">
@@ -3271,7 +3281,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="5">
         <v>2061</v>
       </c>
       <c r="B74" t="s">
@@ -3282,7 +3292,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="5">
         <v>2062</v>
       </c>
       <c r="B75" t="s">
@@ -3293,7 +3303,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="5">
         <v>2064</v>
       </c>
       <c r="B76" t="s">
@@ -3304,7 +3314,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="5">
         <v>2065</v>
       </c>
       <c r="B77" t="s">
@@ -3315,7 +3325,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="5">
         <v>2068</v>
       </c>
       <c r="B78" t="s">
@@ -3326,7 +3336,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="5">
         <v>2069</v>
       </c>
       <c r="B79" t="s">
@@ -3337,7 +3347,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="5">
         <v>2070</v>
       </c>
       <c r="B80" t="s">
@@ -3348,7 +3358,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="5">
         <v>2071</v>
       </c>
       <c r="B81" t="s">
@@ -3359,7 +3369,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="5">
         <v>2072</v>
       </c>
       <c r="B82" t="s">
@@ -3370,7 +3380,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="5">
         <v>2073</v>
       </c>
       <c r="B83" t="s">
@@ -3381,7 +3391,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="5">
         <v>2074</v>
       </c>
       <c r="B84" t="s">
@@ -3392,7 +3402,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="5">
         <v>2078</v>
       </c>
       <c r="B85" t="s">
@@ -3403,7 +3413,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="5">
         <v>2080</v>
       </c>
       <c r="B86" t="s">
@@ -3414,7 +3424,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="5">
         <v>2082</v>
       </c>
       <c r="B87" t="s">
@@ -3425,7 +3435,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="5">
         <v>2084</v>
       </c>
       <c r="B88" t="s">
@@ -3436,7 +3446,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="5">
         <v>2085</v>
       </c>
       <c r="B89" t="s">
@@ -3447,7 +3457,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="5">
         <v>2090</v>
       </c>
       <c r="B90" t="s">
@@ -3458,7 +3468,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="5">
         <v>2101</v>
       </c>
       <c r="B91" t="s">
@@ -3469,7 +3479,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="5">
         <v>2103</v>
       </c>
       <c r="B92" t="s">
@@ -3480,7 +3490,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="5">
         <v>2105</v>
       </c>
       <c r="B93" t="s">
@@ -3491,7 +3501,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="5">
         <v>2107</v>
       </c>
       <c r="B94" t="s">
@@ -3502,7 +3512,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="5">
         <v>2108</v>
       </c>
       <c r="B95" t="s">
@@ -3513,7 +3523,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="5">
         <v>2110</v>
       </c>
       <c r="B96" t="s">
@@ -3524,7 +3534,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="5">
         <v>2112</v>
       </c>
       <c r="B97" t="s">
@@ -3535,7 +3545,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="5">
         <v>2114</v>
       </c>
       <c r="B98" t="s">
@@ -3546,7 +3556,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="5">
         <v>2115</v>
       </c>
       <c r="B99" t="s">
@@ -3557,7 +3567,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="5">
         <v>2116</v>
       </c>
       <c r="B100" t="s">
@@ -3568,7 +3578,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="5">
         <v>2117</v>
       </c>
       <c r="B101" t="s">
@@ -3579,7 +3589,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="5">
         <v>2118</v>
       </c>
       <c r="B102" t="s">
@@ -3590,7 +3600,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="5">
         <v>2119</v>
       </c>
       <c r="B103" t="s">
@@ -3601,7 +3611,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="5">
         <v>2120</v>
       </c>
       <c r="B104" t="s">
@@ -3612,7 +3622,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="5">
         <v>2135</v>
       </c>
       <c r="B105" t="s">
@@ -3623,7 +3633,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="5">
         <v>2140</v>
       </c>
       <c r="B106" t="s">
@@ -3634,7 +3644,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="5">
         <v>2143</v>
       </c>
       <c r="B107" t="s">
@@ -3645,7 +3655,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="5">
         <v>2145</v>
       </c>
       <c r="B108" t="s">
@@ -3656,7 +3666,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="5">
         <v>2150</v>
       </c>
       <c r="B109" t="s">
@@ -3667,7 +3677,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="5">
         <v>2153</v>
       </c>
       <c r="B110" t="s">
@@ -3678,7 +3688,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="5">
         <v>2155</v>
       </c>
       <c r="B111" t="s">
@@ -3689,7 +3699,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="5">
         <v>2160</v>
       </c>
       <c r="B112" t="s">
@@ -3700,7 +3710,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="5">
         <v>2170</v>
       </c>
       <c r="B113" t="s">
@@ -3711,7 +3721,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="5">
         <v>2175</v>
       </c>
       <c r="B114" t="s">
@@ -3722,7 +3732,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="5">
         <v>2180</v>
       </c>
       <c r="B115" t="s">
@@ -3733,7 +3743,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="5">
         <v>2185</v>
       </c>
       <c r="B116" t="s">
@@ -3744,7 +3754,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="5">
         <v>2200</v>
       </c>
       <c r="B117" t="s">
@@ -3755,7 +3765,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="5">
         <v>2205</v>
       </c>
       <c r="B118" t="s">
@@ -3766,7 +3776,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="5">
         <v>2210</v>
       </c>
       <c r="B119" t="s">
@@ -3777,7 +3787,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="5">
         <v>2214</v>
       </c>
       <c r="B120" t="s">
@@ -3788,7 +3798,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="5">
         <v>2225</v>
       </c>
       <c r="B121" t="s">
@@ -3799,7 +3809,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="5">
         <v>2230</v>
       </c>
       <c r="B122" t="s">
@@ -3810,7 +3820,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="5">
         <v>2240</v>
       </c>
       <c r="B123" t="s">
@@ -3821,7 +3831,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="5">
         <v>2280</v>
       </c>
       <c r="B124" t="s">
@@ -3832,7 +3842,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="5">
         <v>2284</v>
       </c>
       <c r="B125" t="s">
@@ -3843,7 +3853,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="5">
         <v>2288</v>
       </c>
       <c r="B126" t="s">
@@ -3854,7 +3864,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="5">
         <v>2300</v>
       </c>
       <c r="B127" t="s">
@@ -3865,7 +3875,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="5">
         <v>2310</v>
       </c>
       <c r="B128" t="s">
@@ -3876,7 +3886,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="5">
         <v>2315</v>
       </c>
       <c r="B129" t="s">
@@ -3887,7 +3897,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="5">
         <v>2340</v>
       </c>
       <c r="B130" t="s">
@@ -3898,7 +3908,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="5">
         <v>2344</v>
       </c>
       <c r="B131" t="s">
@@ -3909,7 +3919,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="5">
         <v>3050</v>
       </c>
       <c r="B132" t="s">
@@ -3920,7 +3930,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="5">
         <v>3010</v>
       </c>
       <c r="B133" t="s">
@@ -3931,7 +3941,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="5">
         <v>3011</v>
       </c>
       <c r="B134" t="s">
@@ -3942,7 +3952,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="5">
         <v>3012</v>
       </c>
       <c r="B135" t="s">
@@ -3953,7 +3963,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="5">
         <v>3014</v>
       </c>
       <c r="B136" t="s">
@@ -3964,7 +3974,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="5">
         <v>3025</v>
       </c>
       <c r="B137" t="s">
@@ -3975,7 +3985,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="5">
         <v>3028</v>
       </c>
       <c r="B138" t="s">
@@ -3986,7 +3996,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="5">
         <v>3029</v>
       </c>
       <c r="B139" t="s">
@@ -3997,7 +4007,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="5">
         <v>3030</v>
       </c>
       <c r="B140" t="s">
@@ -4008,7 +4018,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="5">
         <v>3031</v>
       </c>
       <c r="B141" t="s">
@@ -4019,7 +4029,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="5">
         <v>3033</v>
       </c>
       <c r="B142" t="s">
@@ -4030,7 +4040,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="5">
         <v>3038</v>
       </c>
       <c r="B143" t="s">
@@ -4041,7 +4051,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="5">
         <v>3039</v>
       </c>
       <c r="B144" t="s">
@@ -4052,7 +4062,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="5">
         <v>3040</v>
       </c>
       <c r="B145" t="s">
@@ -4063,7 +4073,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="5">
         <v>3042</v>
       </c>
       <c r="B146" t="s">
@@ -4074,7 +4084,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="5">
         <v>3050</v>
       </c>
       <c r="B147" t="s">
@@ -4085,7 +4095,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="5">
         <v>3060</v>
       </c>
       <c r="B148" t="s">
@@ -4096,7 +4106,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="5">
         <v>3070</v>
       </c>
       <c r="B149" t="s">
@@ -4107,7 +4117,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="5">
         <v>3072</v>
       </c>
       <c r="B150" t="s">
@@ -4118,7 +4128,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="5">
         <v>3075</v>
       </c>
       <c r="B151" t="s">
@@ -4129,7 +4139,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="5">
         <v>3078</v>
       </c>
       <c r="B152" t="s">
@@ -4140,7 +4150,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="5">
         <v>3080</v>
       </c>
       <c r="B153" t="s">
@@ -4151,7 +4161,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="A154" s="5">
         <v>3085</v>
       </c>
       <c r="B154" t="s">
@@ -4162,7 +4172,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="A155" s="5">
         <v>3086</v>
       </c>
       <c r="B155" t="s">
@@ -4173,7 +4183,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="5">
         <v>3087</v>
       </c>
       <c r="B156" t="s">
@@ -4184,7 +4194,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="5">
         <v>3090</v>
       </c>
       <c r="B157" t="s">
@@ -4195,7 +4205,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="5">
         <v>3091</v>
       </c>
       <c r="B158" t="s">
@@ -4206,7 +4216,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="5">
         <v>3093</v>
       </c>
       <c r="B159" t="s">
@@ -4217,7 +4227,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="5">
         <v>4001</v>
       </c>
       <c r="B160" t="s">
@@ -4228,7 +4238,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="A161" s="5">
         <v>4005</v>
       </c>
       <c r="B161" t="s">
@@ -4239,7 +4249,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="A162" s="5">
         <v>4007</v>
       </c>
       <c r="B162" t="s">
@@ -4250,7 +4260,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="A163" s="5">
         <v>4010</v>
       </c>
       <c r="B163" t="s">
@@ -4261,7 +4271,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="A164" s="5">
         <v>4020</v>
       </c>
       <c r="B164" t="s">
@@ -4272,7 +4282,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="A165" s="5">
         <v>4030</v>
       </c>
       <c r="B165" t="s">
@@ -4283,7 +4293,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="A166" s="5">
         <v>4040</v>
       </c>
       <c r="B166" t="s">
@@ -4294,7 +4304,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="5">
         <v>4050</v>
       </c>
       <c r="B167" t="s">
@@ -4305,7 +4315,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="A168" s="5">
         <v>4060</v>
       </c>
       <c r="B168" t="s">
@@ -4316,7 +4326,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="5">
         <v>4061</v>
       </c>
       <c r="B169" t="s">
@@ -4327,7 +4337,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="5">
         <v>4062</v>
       </c>
       <c r="B170" t="s">
@@ -4338,7 +4348,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="5">
         <v>4063</v>
       </c>
       <c r="B171" t="s">
@@ -4349,7 +4359,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="5">
         <v>4064</v>
       </c>
       <c r="B172" t="s">
@@ -4360,7 +4370,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="5">
         <v>4065</v>
       </c>
       <c r="B173" t="s">
@@ -4371,7 +4381,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="5">
         <v>4070</v>
       </c>
       <c r="B174" t="s">
@@ -4382,7 +4392,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="5">
         <v>4080</v>
       </c>
       <c r="B175" t="s">
@@ -4393,7 +4403,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="A176" s="5">
         <v>4081</v>
       </c>
       <c r="B176" t="s">
@@ -4404,7 +4414,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="A177" s="5">
         <v>4083</v>
       </c>
       <c r="B177" t="s">
@@ -4415,7 +4425,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="A178" s="5">
         <v>4085</v>
       </c>
       <c r="B178" t="s">
@@ -4426,7 +4436,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="5">
         <v>4086</v>
       </c>
       <c r="B179" t="s">
@@ -4437,7 +4447,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="A180" s="5">
         <v>4090</v>
       </c>
       <c r="B180" t="s">
@@ -4448,7 +4458,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="5">
         <v>4095</v>
       </c>
       <c r="B181" t="s">
@@ -4459,7 +4469,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="A182" s="5">
         <v>4100</v>
       </c>
       <c r="B182" t="s">
@@ -4470,7 +4480,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="A183" s="5">
         <v>4110</v>
       </c>
       <c r="B183" t="s">
@@ -4481,7 +4491,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="A184" s="5">
         <v>4115</v>
       </c>
       <c r="B184" t="s">
@@ -4492,7 +4502,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="A185" s="5">
         <v>4120</v>
       </c>
       <c r="B185" t="s">
@@ -4503,7 +4513,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="A186" s="5">
         <v>4123</v>
       </c>
       <c r="B186" t="s">
@@ -4514,7 +4524,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="A187" s="5">
         <v>4124</v>
       </c>
       <c r="B187" t="s">
@@ -4525,7 +4535,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="A188" s="5">
         <v>4125</v>
       </c>
       <c r="B188" t="s">
@@ -4536,7 +4546,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="A189" s="5">
         <v>4130</v>
       </c>
       <c r="B189" t="s">
@@ -4547,7 +4557,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="A190" s="5">
         <v>4140</v>
       </c>
       <c r="B190" t="s">
@@ -4558,7 +4568,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="A191" s="5">
         <v>4145</v>
       </c>
       <c r="B191" t="s">
@@ -4569,7 +4579,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="A192" s="5">
         <v>4150</v>
       </c>
       <c r="B192" t="s">
@@ -4580,7 +4590,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="A193" s="5">
         <v>4152</v>
       </c>
       <c r="B193" t="s">
@@ -4591,7 +4601,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="A194" s="5">
         <v>4160</v>
       </c>
       <c r="B194" t="s">
@@ -4602,7 +4612,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="A195" s="5">
         <v>4164</v>
       </c>
       <c r="B195" t="s">
@@ -4613,7 +4623,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="5">
         <v>4168</v>
       </c>
       <c r="B196" t="s">
@@ -4624,7 +4634,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="A197" s="5">
         <v>12010</v>
       </c>
       <c r="B197" t="s">
@@ -4635,7 +4645,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="A198" s="5">
         <v>12020</v>
       </c>
       <c r="B198" t="s">
@@ -4646,7 +4656,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="A199" s="5">
         <v>12025</v>
       </c>
       <c r="B199" t="s">
@@ -4657,7 +4667,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="A200" s="5">
         <v>12026</v>
       </c>
       <c r="B200" t="s">
@@ -4668,7 +4678,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="A201" s="5">
         <v>12027</v>
       </c>
       <c r="B201" t="s">
@@ -4679,7 +4689,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="A202" s="5">
         <v>12028</v>
       </c>
       <c r="B202" t="s">
@@ -4690,7 +4700,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="A203" s="5">
         <v>12029</v>
       </c>
       <c r="B203" t="s">
@@ -4701,7 +4711,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="A204" s="5">
         <v>12030</v>
       </c>
       <c r="B204" t="s">
@@ -4712,7 +4722,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="A205" s="5">
         <v>12045</v>
       </c>
       <c r="B205" t="s">
@@ -4723,7 +4733,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="A206" s="5">
         <v>12050</v>
       </c>
       <c r="B206" t="s">
@@ -4734,7 +4744,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="A207" s="5">
         <v>12060</v>
       </c>
       <c r="B207" t="s">
@@ -4745,7 +4755,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="A208" s="5">
         <v>12070</v>
       </c>
       <c r="B208" t="s">
@@ -4756,7 +4766,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="A209" s="5">
         <v>12080</v>
       </c>
       <c r="B209" t="s">
@@ -4767,7 +4777,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="A210" s="5">
         <v>12090</v>
       </c>
       <c r="B210" t="s">
@@ -4778,7 +4788,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="A211" s="5">
         <v>12100</v>
       </c>
       <c r="B211" t="s">
@@ -4789,7 +4799,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="A212" s="5">
         <v>12110</v>
       </c>
       <c r="B212" t="s">
@@ -4800,7 +4810,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="A213" s="5">
         <v>12115</v>
       </c>
       <c r="B213" t="s">
@@ -4811,7 +4821,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="A214" s="5">
         <v>12120</v>
       </c>
       <c r="B214" t="s">
@@ -4822,7 +4832,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="A215" s="5">
         <v>12130</v>
       </c>
       <c r="B215" t="s">
@@ -4833,7 +4843,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="A216" s="5">
         <v>12132</v>
       </c>
       <c r="B216" t="s">
@@ -4844,7 +4854,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="A217" s="5">
         <v>12134</v>
       </c>
       <c r="B217" t="s">
@@ -4855,7 +4865,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="A218" s="5">
         <v>12135</v>
       </c>
       <c r="B218" t="s">
@@ -4866,7 +4876,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="A219" s="5">
         <v>12140</v>
       </c>
       <c r="B219" t="s">
@@ -4877,7 +4887,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="A220" s="5">
         <v>12145</v>
       </c>
       <c r="B220" t="s">
@@ -4888,7 +4898,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="A221" s="5">
         <v>12150</v>
       </c>
       <c r="B221" t="s">
@@ -4899,7 +4909,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="A222" s="5">
         <v>12170</v>
       </c>
       <c r="B222" t="s">
@@ -4910,7 +4920,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="A223" s="5">
         <v>12180</v>
       </c>
       <c r="B223" t="s">
@@ -4921,7 +4931,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="A224" s="5">
         <v>12184</v>
       </c>
       <c r="B224" t="s">
@@ -4932,7 +4942,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225">
+      <c r="A225" s="5">
         <v>12186</v>
       </c>
       <c r="B225" t="s">
@@ -4943,7 +4953,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226">
+      <c r="A226" s="5">
         <v>12190</v>
       </c>
       <c r="B226" t="s">
@@ -4954,7 +4964,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227">
+      <c r="A227" s="5">
         <v>12200</v>
       </c>
       <c r="B227" t="s">
@@ -4965,7 +4975,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228">
+      <c r="A228" s="5">
         <v>12255</v>
       </c>
       <c r="B228" t="s">
@@ -4976,7 +4986,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="A229" s="5">
         <v>12260</v>
       </c>
       <c r="B229" t="s">
@@ -4987,7 +4997,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="A230" s="5">
         <v>12265</v>
       </c>
       <c r="B230" t="s">
@@ -4998,7 +5008,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="A231" s="5">
         <v>12325</v>
       </c>
       <c r="B231" t="s">
@@ -5009,7 +5019,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="A232" s="5">
         <v>12335</v>
       </c>
       <c r="B232" t="s">
@@ -5020,7 +5030,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="A233" s="5">
         <v>12337</v>
       </c>
       <c r="B233" t="s">
@@ -5031,7 +5041,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="A234" s="5">
         <v>12339</v>
       </c>
       <c r="B234" t="s">
@@ -5042,7 +5052,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="A235" s="5">
         <v>12341</v>
       </c>
       <c r="B235" t="s">
@@ -5053,7 +5063,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="A236" s="5">
         <v>12343</v>
       </c>
       <c r="B236" t="s">
@@ -5064,7 +5074,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="A237" s="5">
         <v>12345</v>
       </c>
       <c r="B237" t="s">
@@ -5075,7 +5085,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="A238" s="5">
         <v>12355</v>
       </c>
       <c r="B238" t="s">
@@ -5086,7 +5096,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239">
+      <c r="A239" s="5">
         <v>12352</v>
       </c>
       <c r="B239" t="s">
@@ -5097,7 +5107,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240">
+      <c r="A240" s="5">
         <v>12353</v>
       </c>
       <c r="B240" t="s">
@@ -5108,7 +5118,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="A241" s="5">
         <v>12355</v>
       </c>
       <c r="B241" t="s">
@@ -5119,7 +5129,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="A242" s="5">
         <v>12358</v>
       </c>
       <c r="B242" t="s">
@@ -5130,7 +5140,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="A243" s="5">
         <v>12361</v>
       </c>
       <c r="B243" t="s">
@@ -5141,7 +5151,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="A244" s="5">
         <v>12405</v>
       </c>
       <c r="B244" t="s">
@@ -5152,7 +5162,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="A245" s="5">
         <v>12408</v>
       </c>
       <c r="B245" t="s">
@@ -5163,7 +5173,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246">
+      <c r="A246" s="5">
         <v>12410</v>
       </c>
       <c r="B246" t="s">
@@ -5174,7 +5184,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247">
+      <c r="A247" s="5">
         <v>12412</v>
       </c>
       <c r="B247" t="s">
@@ -5185,7 +5195,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248">
+      <c r="A248" s="5">
         <v>12414</v>
       </c>
       <c r="B248" t="s">
@@ -5196,7 +5206,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249">
+      <c r="A249" s="5">
         <v>12416</v>
       </c>
       <c r="B249" t="s">
@@ -5207,7 +5217,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250">
+      <c r="A250" s="5">
         <v>12508</v>
       </c>
       <c r="B250" t="s">
@@ -5218,7 +5228,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251">
+      <c r="A251" s="5">
         <v>12510</v>
       </c>
       <c r="B251" t="s">
@@ -5229,7 +5239,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252">
+      <c r="A252" s="5">
         <v>12512</v>
       </c>
       <c r="B252" t="s">
@@ -5240,7 +5250,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253">
+      <c r="A253" s="5">
         <v>12514</v>
       </c>
       <c r="B253" t="s">
@@ -5251,7 +5261,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254">
+      <c r="A254" s="5">
         <v>12555</v>
       </c>
       <c r="B254" t="s">
@@ -5262,7 +5272,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255">
+      <c r="A255" s="5">
         <v>12560</v>
       </c>
       <c r="B255" t="s">
@@ -5273,7 +5283,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256">
+      <c r="A256" s="5">
         <v>12565</v>
       </c>
       <c r="B256" t="s">
@@ -5284,7 +5294,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="A257" s="5">
         <v>12585</v>
       </c>
       <c r="B257" t="s">
@@ -5295,7 +5305,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="A258" s="5">
         <v>12588</v>
       </c>
       <c r="B258" t="s">
@@ -5306,7 +5316,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="A259" s="5">
         <v>12593</v>
       </c>
       <c r="B259" t="s">
@@ -5317,7 +5327,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260">
+      <c r="A260" s="5">
         <v>12595</v>
       </c>
       <c r="B260" t="s">
@@ -5328,7 +5338,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="A261" s="5">
         <v>12600</v>
       </c>
       <c r="B261" t="s">
@@ -5339,7 +5349,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262">
+      <c r="A262" s="5">
         <v>12620</v>
       </c>
       <c r="B262" t="s">
@@ -5350,7 +5360,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="A263" s="5">
         <v>15000</v>
       </c>
       <c r="B263" t="s">
@@ -5361,7 +5371,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264">
+      <c r="A264" s="5">
         <v>15010</v>
       </c>
       <c r="B264" t="s">
@@ -5372,7 +5382,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265">
+      <c r="A265" s="5">
         <v>15020</v>
       </c>
       <c r="B265" t="s">
@@ -5383,7 +5393,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266">
+      <c r="A266" s="5">
         <v>15025</v>
       </c>
       <c r="B266" t="s">
@@ -5394,7 +5404,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267">
+      <c r="A267" s="5">
         <v>15030</v>
       </c>
       <c r="B267" t="s">
@@ -5405,7 +5415,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268">
+      <c r="A268" s="5">
         <v>15040</v>
       </c>
       <c r="B268" t="s">
@@ -5416,7 +5426,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269">
+      <c r="A269" s="5">
         <v>15050</v>
       </c>
       <c r="B269" t="s">
@@ -5427,7 +5437,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270">
+      <c r="A270" s="5">
         <v>15055</v>
       </c>
       <c r="B270" t="s">
@@ -5438,7 +5448,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271">
+      <c r="A271" s="5">
         <v>15060</v>
       </c>
       <c r="B271" t="s">
@@ -5449,7 +5459,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="A272" s="5">
         <v>15062</v>
       </c>
       <c r="B272" t="s">
@@ -5460,7 +5470,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="A273" s="5">
         <v>15070</v>
       </c>
       <c r="B273" t="s">
@@ -5471,7 +5481,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="A274" s="5">
         <v>15072</v>
       </c>
       <c r="B274" t="s">
@@ -5482,7 +5492,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275">
+      <c r="A275" s="5">
         <v>15080</v>
       </c>
       <c r="B275" t="s">
@@ -5493,7 +5503,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276">
+      <c r="A276" s="5">
         <v>15090</v>
       </c>
       <c r="B276" t="s">
@@ -5504,7 +5514,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277">
+      <c r="A277" s="5">
         <v>15092</v>
       </c>
       <c r="B277" t="s">
@@ -5515,7 +5525,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278">
+      <c r="A278" s="5">
         <v>15100</v>
       </c>
       <c r="B278" t="s">
@@ -5526,7 +5536,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="A279" s="5">
         <v>15110</v>
       </c>
       <c r="B279" t="s">
@@ -5537,7 +5547,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="A280" s="5">
         <v>15113</v>
       </c>
       <c r="B280" t="s">
@@ -5548,7 +5558,7 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="A281" s="5">
         <v>15115</v>
       </c>
       <c r="B281" t="s">
@@ -5559,7 +5569,7 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="A282" s="5">
         <v>15118</v>
       </c>
       <c r="B282" t="s">
@@ -5570,7 +5580,7 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="A283" s="5">
         <v>15120</v>
       </c>
       <c r="B283" t="s">
@@ -5581,7 +5591,7 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="A284" s="5">
         <v>15125</v>
       </c>
       <c r="B284" t="s">
@@ -5592,7 +5602,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285">
+      <c r="A285" s="5">
         <v>15130</v>
       </c>
       <c r="B285" t="s">
@@ -5603,7 +5613,7 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="A286" s="5">
         <v>15135</v>
       </c>
       <c r="B286" t="s">
@@ -5614,7 +5624,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="A287" s="5">
         <v>15138</v>
       </c>
       <c r="B287" t="s">
@@ -5625,7 +5635,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="A288" s="5">
         <v>15140</v>
       </c>
       <c r="B288" t="s">
@@ -5636,7 +5646,7 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289">
+      <c r="A289" s="5">
         <v>15142</v>
       </c>
       <c r="B289" t="s">
@@ -5647,7 +5657,7 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290">
+      <c r="A290" s="5">
         <v>15150</v>
       </c>
       <c r="B290" t="s">
@@ -5658,7 +5668,7 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291">
+      <c r="A291" s="5">
         <v>15160</v>
       </c>
       <c r="B291" t="s">
@@ -5669,7 +5679,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292">
+      <c r="A292" s="5">
         <v>15170</v>
       </c>
       <c r="B292" t="s">
@@ -5680,7 +5690,7 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293">
+      <c r="A293" s="5">
         <v>15180</v>
       </c>
       <c r="B293" t="s">
@@ -5691,7 +5701,7 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294">
+      <c r="A294" s="5">
         <v>15190</v>
       </c>
       <c r="B294" t="s">
@@ -5702,7 +5712,7 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295">
+      <c r="A295" s="5">
         <v>15192</v>
       </c>
       <c r="B295" t="s">
@@ -5713,7 +5723,7 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296">
+      <c r="A296" s="5">
         <v>15195</v>
       </c>
       <c r="B296" t="s">
@@ -5724,7 +5734,7 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297">
+      <c r="A297" s="5">
         <v>15200</v>
       </c>
       <c r="B297" t="s">
@@ -5735,7 +5745,7 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298">
+      <c r="A298" s="5">
         <v>15203</v>
       </c>
       <c r="B298" t="s">
@@ -5746,7 +5756,7 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299">
+      <c r="A299" s="5">
         <v>15205</v>
       </c>
       <c r="B299" t="s">
@@ -5757,7 +5767,7 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300">
+      <c r="A300" s="5">
         <v>15210</v>
       </c>
       <c r="B300" t="s">
@@ -5768,7 +5778,7 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301">
+      <c r="A301" s="5">
         <v>15230</v>
       </c>
       <c r="B301" t="s">
@@ -5779,7 +5789,7 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302">
+      <c r="A302" s="5">
         <v>15232</v>
       </c>
       <c r="B302" t="s">
@@ -5790,7 +5800,7 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303">
+      <c r="A303" s="5">
         <v>15235</v>
       </c>
       <c r="B303" t="s">
@@ -5801,7 +5811,7 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304">
+      <c r="A304" s="5">
         <v>15240</v>
       </c>
       <c r="B304" t="s">
@@ -5812,7 +5822,7 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305">
+      <c r="A305" s="5">
         <v>15250</v>
       </c>
       <c r="B305" t="s">
@@ -5823,7 +5833,7 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306">
+      <c r="A306" s="5">
         <v>15252</v>
       </c>
       <c r="B306" t="s">
@@ -5834,7 +5844,7 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307">
+      <c r="A307" s="5">
         <v>15255</v>
       </c>
       <c r="B307" t="s">
@@ -5845,7 +5855,7 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308">
+      <c r="A308" s="5">
         <v>15265</v>
       </c>
       <c r="B308" t="s">
@@ -5856,7 +5866,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309">
+      <c r="A309" s="5">
         <v>15270</v>
       </c>
       <c r="B309" t="s">
@@ -5867,7 +5877,7 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310">
+      <c r="A310" s="5">
         <v>15285</v>
       </c>
       <c r="B310" t="s">
@@ -5878,7 +5888,7 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311">
+      <c r="A311" s="5">
         <v>15290</v>
       </c>
       <c r="B311" t="s">
@@ -5889,7 +5899,7 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312">
+      <c r="A312" s="5">
         <v>15300</v>
       </c>
       <c r="B312" t="s">
@@ -5900,7 +5910,7 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313">
+      <c r="A313" s="5">
         <v>15310</v>
       </c>
       <c r="B313" t="s">
@@ -5911,7 +5921,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314">
+      <c r="A314" s="5">
         <v>15320</v>
       </c>
       <c r="B314" t="s">
@@ -5922,7 +5932,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315">
+      <c r="A315" s="5">
         <v>15330</v>
       </c>
       <c r="B315" t="s">
@@ -5933,7 +5943,7 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316">
+      <c r="A316" s="5">
         <v>15335</v>
       </c>
       <c r="B316" t="s">
@@ -5944,7 +5954,7 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317">
+      <c r="A317" s="5">
         <v>15340</v>
       </c>
       <c r="B317" t="s">
@@ -5955,7 +5965,7 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318">
+      <c r="A318" s="5">
         <v>15350</v>
       </c>
       <c r="B318" t="s">
@@ -5966,7 +5976,7 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319">
+      <c r="A319" s="5">
         <v>15360</v>
       </c>
       <c r="B319" t="s">
@@ -5977,7 +5987,7 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320">
+      <c r="A320" s="5">
         <v>15362</v>
       </c>
       <c r="B320" t="s">
@@ -5988,7 +5998,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321">
+      <c r="A321" s="5">
         <v>15370</v>
       </c>
       <c r="B321" t="s">
@@ -5999,7 +6009,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322">
+      <c r="A322" s="5">
         <v>15380</v>
       </c>
       <c r="B322" t="s">
@@ -6010,7 +6020,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323">
+      <c r="A323" s="5">
         <v>15390</v>
       </c>
       <c r="B323" t="s">
@@ -6021,7 +6031,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324">
+      <c r="A324" s="5">
         <v>15395</v>
       </c>
       <c r="B324" t="s">
@@ -6032,7 +6042,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325">
+      <c r="A325" s="5">
         <v>15400</v>
       </c>
       <c r="B325" t="s">
@@ -6043,7 +6053,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326">
+      <c r="A326" s="5">
         <v>15402</v>
       </c>
       <c r="B326" t="s">
@@ -6054,7 +6064,7 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327">
+      <c r="A327" s="5">
         <v>15403</v>
       </c>
       <c r="B327" t="s">
@@ -6065,7 +6075,7 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328">
+      <c r="A328" s="5">
         <v>15406</v>
       </c>
       <c r="B328" t="s">
@@ -6076,7 +6086,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329">
+      <c r="A329" s="5">
         <v>15408</v>
       </c>
       <c r="B329" t="s">
@@ -6087,7 +6097,7 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330">
+      <c r="A330" s="5">
         <v>15410</v>
       </c>
       <c r="B330" t="s">
@@ -6098,7 +6108,7 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331">
+      <c r="A331" s="5">
         <v>15420</v>
       </c>
       <c r="B331" t="s">
@@ -6109,7 +6119,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332">
+      <c r="A332" s="5">
         <v>15425</v>
       </c>
       <c r="B332" t="s">
@@ -6120,7 +6130,7 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333">
+      <c r="A333" s="5">
         <v>15430</v>
       </c>
       <c r="B333" t="s">
@@ -6131,7 +6141,7 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334">
+      <c r="A334" s="5">
         <v>15432</v>
       </c>
       <c r="B334" t="s">
@@ -6142,7 +6152,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335">
+      <c r="A335" s="5">
         <v>15433</v>
       </c>
       <c r="B335" t="s">
@@ -6153,7 +6163,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336">
+      <c r="A336" s="5">
         <v>15440</v>
       </c>
       <c r="B336" t="s">
@@ -6164,7 +6174,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337">
+      <c r="A337" s="5">
         <v>15444</v>
       </c>
       <c r="B337" t="s">
@@ -6175,7 +6185,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338">
+      <c r="A338" s="5">
         <v>15445</v>
       </c>
       <c r="B338" t="s">
@@ -6186,7 +6196,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339">
+      <c r="A339" s="5">
         <v>15446</v>
       </c>
       <c r="B339" t="s">
@@ -6197,7 +6207,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340">
+      <c r="A340" s="5">
         <v>15450</v>
       </c>
       <c r="B340" t="s">
@@ -6208,7 +6218,7 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341">
+      <c r="A341" s="5">
         <v>15455</v>
       </c>
       <c r="B341" t="s">
@@ -6219,7 +6229,7 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342">
+      <c r="A342" s="5">
         <v>15450</v>
       </c>
       <c r="B342" t="s">
@@ -6230,7 +6240,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343">
+      <c r="A343" s="5">
         <v>15460</v>
       </c>
       <c r="B343" t="s">
@@ -6241,7 +6251,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344">
+      <c r="A344" s="5">
         <v>15465</v>
       </c>
       <c r="B344" t="s">
@@ -6252,7 +6262,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345">
+      <c r="A345" s="5">
         <v>15470</v>
       </c>
       <c r="B345" t="s">
@@ -6263,7 +6273,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346">
+      <c r="A346" s="5">
         <v>15475</v>
       </c>
       <c r="B346" t="s">
@@ -6274,7 +6284,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347">
+      <c r="A347" s="5">
         <v>15477</v>
       </c>
       <c r="B347" t="s">
@@ -6285,7 +6295,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348">
+      <c r="A348" s="5">
         <v>15480</v>
       </c>
       <c r="B348" t="s">
@@ -6296,7 +6306,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349">
+      <c r="A349" s="5">
         <v>15490</v>
       </c>
       <c r="B349" t="s">
@@ -6307,7 +6317,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350">
+      <c r="A350" s="5">
         <v>15500</v>
       </c>
       <c r="B350" t="s">
@@ -6318,7 +6328,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351">
+      <c r="A351" s="5">
         <v>15503</v>
       </c>
       <c r="B351" t="s">
@@ -6329,7 +6339,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352">
+      <c r="A352" s="5">
         <v>15506</v>
       </c>
       <c r="B352" t="s">
@@ -6340,7 +6350,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353">
+      <c r="A353" s="5">
         <v>15510</v>
       </c>
       <c r="B353" t="s">
@@ -6351,7 +6361,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354">
+      <c r="A354" s="5">
         <v>15520</v>
       </c>
       <c r="B354" t="s">
@@ -6362,7 +6372,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355">
+      <c r="A355" s="5">
         <v>15525</v>
       </c>
       <c r="B355" t="s">
@@ -6373,7 +6383,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356">
+      <c r="A356" s="5">
         <v>15527</v>
       </c>
       <c r="B356" t="s">
@@ -6384,7 +6394,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357">
+      <c r="A357" s="5">
         <v>15528</v>
       </c>
       <c r="B357" t="s">
@@ -6395,7 +6405,7 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358">
+      <c r="A358" s="5">
         <v>15530</v>
       </c>
       <c r="B358" t="s">
@@ -6406,7 +6416,7 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359">
+      <c r="A359" s="5">
         <v>15533</v>
       </c>
       <c r="B359" t="s">
@@ -6417,7 +6427,7 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360">
+      <c r="A360" s="5">
         <v>15534</v>
       </c>
       <c r="B360" t="s">
@@ -6428,7 +6438,7 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361">
+      <c r="A361" s="5">
         <v>15535</v>
       </c>
       <c r="B361" t="s">
@@ -6439,7 +6449,7 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362">
+      <c r="A362" s="5">
         <v>15536</v>
       </c>
       <c r="B362" t="s">
@@ -6450,7 +6460,7 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363">
+      <c r="A363" s="5">
         <v>15537</v>
       </c>
       <c r="B363" t="s">
@@ -6461,7 +6471,7 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364">
+      <c r="A364" s="5">
         <v>15538</v>
       </c>
       <c r="B364" t="s">
@@ -6472,7 +6482,7 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365">
+      <c r="A365" s="5">
         <v>15539</v>
       </c>
       <c r="B365" t="s">
@@ -6483,7 +6493,7 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366">
+      <c r="A366" s="5">
         <v>15540</v>
       </c>
       <c r="B366" t="s">
@@ -6494,7 +6504,7 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367">
+      <c r="A367" s="5">
         <v>15542</v>
       </c>
       <c r="B367" t="s">
@@ -6505,7 +6515,7 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368">
+      <c r="A368" s="5">
         <v>15544</v>
       </c>
       <c r="B368" t="s">
@@ -6516,7 +6526,7 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369">
+      <c r="A369" s="5">
         <v>15546</v>
       </c>
       <c r="B369" t="s">
@@ -6527,7 +6537,7 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370">
+      <c r="A370" s="5">
         <v>15550</v>
       </c>
       <c r="B370" t="s">
@@ -6538,7 +6548,7 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371">
+      <c r="A371" s="5">
         <v>15551</v>
       </c>
       <c r="B371" t="s">
@@ -6549,7 +6559,7 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372">
+      <c r="A372" s="5">
         <v>15552</v>
       </c>
       <c r="B372" t="s">
@@ -6560,7 +6570,7 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373">
+      <c r="A373" s="5">
         <v>15554</v>
       </c>
       <c r="B373" t="s">
@@ -6571,7 +6581,7 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374">
+      <c r="A374" s="5">
         <v>15560</v>
       </c>
       <c r="B374" t="s">
@@ -6582,7 +6592,7 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375">
+      <c r="A375" s="5">
         <v>15562</v>
       </c>
       <c r="B375" t="s">
@@ -6593,7 +6603,7 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376">
+      <c r="A376" s="5">
         <v>15570</v>
       </c>
       <c r="B376" t="s">
@@ -6604,7 +6614,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377">
+      <c r="A377" s="5">
         <v>15580</v>
       </c>
       <c r="B377" t="s">
@@ -6615,7 +6625,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378">
+      <c r="A378" s="5">
         <v>15582</v>
       </c>
       <c r="B378" t="s">
@@ -6626,7 +6636,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379">
+      <c r="A379" s="5">
         <v>15590</v>
       </c>
       <c r="B379" t="s">
@@ -6637,7 +6647,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380">
+      <c r="A380" s="5">
         <v>15591</v>
       </c>
       <c r="B380" t="s">
@@ -6648,7 +6658,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381">
+      <c r="A381" s="5">
         <v>15592</v>
       </c>
       <c r="B381" t="s">
@@ -6659,7 +6669,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382">
+      <c r="A382" s="5">
         <v>15593</v>
       </c>
       <c r="B382" t="s">
@@ -6670,7 +6680,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383">
+      <c r="A383" s="5">
         <v>15594</v>
       </c>
       <c r="B383" t="s">
@@ -6681,7 +6691,7 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384">
+      <c r="A384" s="5">
         <v>15595</v>
       </c>
       <c r="B384" t="s">
@@ -6692,7 +6702,7 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385">
+      <c r="A385" s="5">
         <v>15596</v>
       </c>
       <c r="B385" t="s">
@@ -6703,7 +6713,7 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386">
+      <c r="A386" s="5">
         <v>15597</v>
       </c>
       <c r="B386" t="s">
@@ -6714,7 +6724,7 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387">
+      <c r="A387" s="5">
         <v>15600</v>
       </c>
       <c r="B387" t="s">
@@ -6725,7 +6735,7 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388">
+      <c r="A388" s="5">
         <v>15605</v>
       </c>
       <c r="B388" t="s">
@@ -6736,7 +6746,7 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389">
+      <c r="A389" s="5">
         <v>15610</v>
       </c>
       <c r="B389" t="s">
@@ -6747,7 +6757,7 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390">
+      <c r="A390" s="5">
         <v>15615</v>
       </c>
       <c r="B390" t="s">
@@ -6758,7 +6768,7 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391">
+      <c r="A391" s="5">
         <v>15620</v>
       </c>
       <c r="B391" t="s">
@@ -6769,7 +6779,7 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392">
+      <c r="A392" s="5">
         <v>15625</v>
       </c>
       <c r="B392" t="s">
@@ -6780,7 +6790,7 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393">
+      <c r="A393" s="5">
         <v>15630</v>
       </c>
       <c r="B393" t="s">
@@ -6791,7 +6801,7 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394">
+      <c r="A394" s="5">
         <v>15640</v>
       </c>
       <c r="B394" t="s">
@@ -6802,7 +6812,7 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395">
+      <c r="A395" s="5">
         <v>15645</v>
       </c>
       <c r="B395" t="s">
@@ -6813,7 +6823,7 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396">
+      <c r="A396" s="5">
         <v>15650</v>
       </c>
       <c r="B396" t="s">
@@ -6824,7 +6834,7 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397">
+      <c r="A397" s="5">
         <v>15652</v>
       </c>
       <c r="B397" t="s">
@@ -6835,7 +6845,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398">
+      <c r="A398" s="5">
         <v>15660</v>
       </c>
       <c r="B398" t="s">
@@ -6846,7 +6856,7 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399">
+      <c r="A399" s="5">
         <v>15670</v>
       </c>
       <c r="B399" t="s">
@@ -6857,7 +6867,7 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400">
+      <c r="A400" s="5">
         <v>15672</v>
       </c>
       <c r="B400" t="s">
@@ -6868,7 +6878,7 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401">
+      <c r="A401" s="5">
         <v>15674</v>
       </c>
       <c r="B401" t="s">
@@ -6879,7 +6889,7 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402">
+      <c r="A402" s="5">
         <v>15675</v>
       </c>
       <c r="B402" t="s">
@@ -6890,7 +6900,7 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403">
+      <c r="A403" s="5">
         <v>15676</v>
       </c>
       <c r="B403" t="s">
@@ -6901,7 +6911,7 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404">
+      <c r="A404" s="5">
         <v>15680</v>
       </c>
       <c r="B404" t="s">
@@ -6912,7 +6922,7 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405">
+      <c r="A405" s="5">
         <v>15685</v>
       </c>
       <c r="B405" t="s">
@@ -6923,7 +6933,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406">
+      <c r="A406" s="5">
         <v>15690</v>
       </c>
       <c r="B406" t="s">
@@ -6934,7 +6944,7 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407">
+      <c r="A407" s="5">
         <v>15695</v>
       </c>
       <c r="B407" t="s">
@@ -6945,7 +6955,7 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408">
+      <c r="A408" s="5">
         <v>15700</v>
       </c>
       <c r="B408" t="s">
@@ -6956,7 +6966,7 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409">
+      <c r="A409" s="5">
         <v>15702</v>
       </c>
       <c r="B409" t="s">
@@ -6967,7 +6977,7 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410">
+      <c r="A410" s="5">
         <v>15710</v>
       </c>
       <c r="B410" t="s">
@@ -6978,7 +6988,7 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411">
+      <c r="A411" s="5">
         <v>15711</v>
       </c>
       <c r="B411" t="s">
@@ -6989,7 +6999,7 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412">
+      <c r="A412" s="5">
         <v>15720</v>
       </c>
       <c r="B412" t="s">
@@ -7000,7 +7010,7 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413">
+      <c r="A413" s="5">
         <v>15725</v>
       </c>
       <c r="B413" t="s">
@@ -7011,7 +7021,7 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414">
+      <c r="A414" s="5">
         <v>15730</v>
       </c>
       <c r="B414" t="s">
@@ -7022,7 +7032,7 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415">
+      <c r="A415" s="5">
         <v>15731</v>
       </c>
       <c r="B415" t="s">
@@ -7033,7 +7043,7 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416">
+      <c r="A416" s="5">
         <v>15732</v>
       </c>
       <c r="B416" t="s">
@@ -7044,7 +7054,7 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417">
+      <c r="A417" s="5">
         <v>15733</v>
       </c>
       <c r="B417" t="s">
@@ -7055,7 +7065,7 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418">
+      <c r="A418" s="5">
         <v>15734</v>
       </c>
       <c r="B418" t="s">
@@ -7066,7 +7076,7 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419">
+      <c r="A419" s="5">
         <v>17010</v>
       </c>
       <c r="B419" t="s">
@@ -7077,7 +7087,7 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420">
+      <c r="A420" s="5">
         <v>17011</v>
       </c>
       <c r="B420" t="s">
@@ -7088,7 +7098,7 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421">
+      <c r="A421" s="5">
         <v>17012</v>
       </c>
       <c r="B421" t="s">
@@ -7099,7 +7109,7 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422">
+      <c r="A422" s="5">
         <v>17016</v>
       </c>
       <c r="B422" t="s">
@@ -7110,7 +7120,7 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423">
+      <c r="A423" s="5">
         <v>17018</v>
       </c>
       <c r="B423" t="s">
@@ -7121,7 +7131,7 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424">
+      <c r="A424" s="5">
         <v>17019</v>
       </c>
       <c r="B424" t="s">
@@ -7132,7 +7142,7 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425">
+      <c r="A425" s="5">
         <v>17021</v>
       </c>
       <c r="B425" t="s">
@@ -7143,7 +7153,7 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426">
+      <c r="A426" s="5">
         <v>17025</v>
       </c>
       <c r="B426" t="s">
@@ -7154,7 +7164,7 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427">
+      <c r="A427" s="5">
         <v>17026</v>
       </c>
       <c r="B427" t="s">
@@ -7165,7 +7175,7 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428">
+      <c r="A428" s="5">
         <v>17027</v>
       </c>
       <c r="B428" t="s">
@@ -7176,7 +7186,7 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429">
+      <c r="A429" s="5">
         <v>17028</v>
       </c>
       <c r="B429" t="s">
@@ -7187,7 +7197,7 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430">
+      <c r="A430" s="5">
         <v>17029</v>
       </c>
       <c r="B430" t="s">
@@ -7198,7 +7208,7 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431">
+      <c r="A431" s="5">
         <v>17030</v>
       </c>
       <c r="B431" t="s">
@@ -7209,7 +7219,7 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432">
+      <c r="A432" s="5">
         <v>17031</v>
       </c>
       <c r="B432" t="s">
@@ -7220,7 +7230,7 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433">
+      <c r="A433" s="5">
         <v>17032</v>
       </c>
       <c r="B433" t="s">
@@ -7231,7 +7241,7 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434">
+      <c r="A434" s="5">
         <v>17033</v>
       </c>
       <c r="B434" t="s">
@@ -7242,7 +7252,7 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435">
+      <c r="A435" s="5">
         <v>17034</v>
       </c>
       <c r="B435" t="s">
@@ -7253,7 +7263,7 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436">
+      <c r="A436" s="5">
         <v>17035</v>
       </c>
       <c r="B436" t="s">
@@ -7264,7 +7274,7 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437">
+      <c r="A437" s="5">
         <v>17036</v>
       </c>
       <c r="B437" t="s">
@@ -7275,7 +7285,7 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438">
+      <c r="A438" s="5">
         <v>17037</v>
       </c>
       <c r="B438" t="s">
@@ -7286,7 +7296,7 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439">
+      <c r="A439" s="5">
         <v>17038</v>
       </c>
       <c r="B439" t="s">
@@ -7297,7 +7307,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440">
+      <c r="A440" s="5">
         <v>17039</v>
       </c>
       <c r="B440" t="s">
@@ -7308,7 +7318,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441">
+      <c r="A441" s="5">
         <v>17040</v>
       </c>
       <c r="B441" t="s">
@@ -7319,7 +7329,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442">
+      <c r="A442" s="5">
         <v>17045</v>
       </c>
       <c r="B442" t="s">
@@ -7330,7 +7340,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443">
+      <c r="A443" s="5">
         <v>17050</v>
       </c>
       <c r="B443" t="s">
@@ -7341,7 +7351,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444">
+      <c r="A444" s="5">
         <v>17060</v>
       </c>
       <c r="B444" t="s">
@@ -7352,7 +7362,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445">
+      <c r="A445" s="5">
         <v>17070</v>
       </c>
       <c r="B445" t="s">
@@ -7363,7 +7373,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446">
+      <c r="A446" s="5">
         <v>17076</v>
       </c>
       <c r="B446" t="s">
@@ -7374,7 +7384,7 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447">
+      <c r="A447" s="5">
         <v>17080</v>
       </c>
       <c r="B447" t="s">
@@ -7385,7 +7395,7 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448">
+      <c r="A448" s="5">
         <v>17081</v>
       </c>
       <c r="B448" t="s">
@@ -7396,7 +7406,7 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449">
+      <c r="A449" s="5">
         <v>17082</v>
       </c>
       <c r="B449" t="s">
@@ -7407,7 +7417,7 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450">
+      <c r="A450" s="5">
         <v>17085</v>
       </c>
       <c r="B450" t="s">
@@ -7418,7 +7428,7 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451">
+      <c r="A451" s="5">
         <v>17088</v>
       </c>
       <c r="B451" t="s">
@@ -7429,7 +7439,7 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452">
+      <c r="A452" s="5">
         <v>17090</v>
       </c>
       <c r="B452" t="s">
@@ -7440,7 +7450,7 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453">
+      <c r="A453" s="5">
         <v>17100</v>
       </c>
       <c r="B453" t="s">
@@ -7451,7 +7461,7 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454">
+      <c r="A454" s="5">
         <v>17105</v>
       </c>
       <c r="B454" t="s">
@@ -7462,7 +7472,7 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455">
+      <c r="A455" s="5">
         <v>17110</v>
       </c>
       <c r="B455" t="s">
@@ -7473,7 +7483,7 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456">
+      <c r="A456" s="5">
         <v>17130</v>
       </c>
       <c r="B456" t="s">
@@ -7484,7 +7494,7 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457">
+      <c r="A457" s="5">
         <v>17131</v>
       </c>
       <c r="B457" t="s">
@@ -7495,7 +7505,7 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458">
+      <c r="A458" s="5">
         <v>17133</v>
       </c>
       <c r="B458" t="s">
@@ -7506,7 +7516,7 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459">
+      <c r="A459" s="5">
         <v>17134</v>
       </c>
       <c r="B459" t="s">
@@ -7517,7 +7527,7 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460">
+      <c r="A460" s="5">
         <v>17136</v>
       </c>
       <c r="B460" t="s">
@@ -7528,7 +7538,7 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461">
+      <c r="A461" s="5">
         <v>17138</v>
       </c>
       <c r="B461" t="s">
@@ -7539,7 +7549,7 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462">
+      <c r="A462" s="5">
         <v>17140</v>
       </c>
       <c r="B462" t="s">
@@ -7550,7 +7560,7 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463">
+      <c r="A463" s="5">
         <v>17142</v>
       </c>
       <c r="B463" t="s">
@@ -7561,7 +7571,7 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464">
+      <c r="A464" s="5">
         <v>17145</v>
       </c>
       <c r="B464" t="s">
@@ -7572,7 +7582,7 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465">
+      <c r="A465" s="5">
         <v>17150</v>
       </c>
       <c r="B465" t="s">
@@ -7583,7 +7593,7 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466">
+      <c r="A466" s="5">
         <v>17151</v>
       </c>
       <c r="B466" t="s">
@@ -7594,7 +7604,7 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467">
+      <c r="A467" s="5">
         <v>17152</v>
       </c>
       <c r="B467" t="s">
@@ -7605,7 +7615,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468">
+      <c r="A468" s="5">
         <v>17160</v>
       </c>
       <c r="B468" t="s">
@@ -7616,7 +7626,7 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469">
+      <c r="A469" s="5">
         <v>17161</v>
       </c>
       <c r="B469" t="s">
@@ -7627,7 +7637,7 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470">
+      <c r="A470" s="5">
         <v>17162</v>
       </c>
       <c r="B470" t="s">
@@ -7638,7 +7648,7 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471">
+      <c r="A471" s="5">
         <v>17165</v>
       </c>
       <c r="B471" t="s">
@@ -7649,7 +7659,7 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472">
+      <c r="A472" s="5">
         <v>17170</v>
       </c>
       <c r="B472" t="s">
@@ -7660,7 +7670,7 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473">
+      <c r="A473" s="5">
         <v>17180</v>
       </c>
       <c r="B473" t="s">
@@ -7671,7 +7681,7 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474">
+      <c r="A474" s="5">
         <v>17190</v>
       </c>
       <c r="B474" t="s">
@@ -7682,7 +7692,7 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475">
+      <c r="A475" s="5">
         <v>17200</v>
       </c>
       <c r="B475" t="s">
@@ -7693,7 +7703,7 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476">
+      <c r="A476" s="5">
         <v>17220</v>
       </c>
       <c r="B476" t="s">
@@ -7704,7 +7714,7 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477">
+      <c r="A477" s="5">
         <v>17230</v>
       </c>
       <c r="B477" t="s">
@@ -7715,7 +7725,7 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478">
+      <c r="A478" s="5">
         <v>17231</v>
       </c>
       <c r="B478" t="s">
@@ -7726,7 +7736,7 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479">
+      <c r="A479" s="5">
         <v>17250</v>
       </c>
       <c r="B479" t="s">
@@ -7737,7 +7747,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480">
+      <c r="A480" s="5">
         <v>17255</v>
       </c>
       <c r="B480" t="s">
@@ -7748,7 +7758,7 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481">
+      <c r="A481" s="5">
         <v>17260</v>
       </c>
       <c r="B481" t="s">
@@ -7759,7 +7769,7 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482">
+      <c r="A482" s="5">
         <v>17262</v>
       </c>
       <c r="B482" t="s">
@@ -7770,7 +7780,7 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483">
+      <c r="A483" s="5">
         <v>17270</v>
       </c>
       <c r="B483" t="s">
@@ -7781,7 +7791,7 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484">
+      <c r="A484" s="5">
         <v>17280</v>
       </c>
       <c r="B484" t="s">
@@ -7792,7 +7802,7 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485">
+      <c r="A485" s="5">
         <v>17302</v>
       </c>
       <c r="B485" t="s">
@@ -7803,7 +7813,7 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486">
+      <c r="A486" s="5">
         <v>17304</v>
       </c>
       <c r="B486" t="s">
@@ -7814,7 +7824,7 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487">
+      <c r="A487" s="5">
         <v>17305</v>
       </c>
       <c r="B487" t="s">
@@ -7825,7 +7835,7 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488">
+      <c r="A488" s="5">
         <v>17310</v>
       </c>
       <c r="B488" t="s">
@@ -7836,7 +7846,7 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489">
+      <c r="A489" s="5">
         <v>17313</v>
       </c>
       <c r="B489" t="s">
@@ -7847,7 +7857,7 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490">
+      <c r="A490" s="5">
         <v>17315</v>
       </c>
       <c r="B490" t="s">
@@ -7858,7 +7868,7 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491">
+      <c r="A491" s="5">
         <v>17320</v>
       </c>
       <c r="B491" t="s">
@@ -7869,7 +7879,7 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492">
+      <c r="A492" s="5">
         <v>17325</v>
       </c>
       <c r="B492" t="s">
@@ -7880,7 +7890,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493">
+      <c r="A493" s="5">
         <v>17350</v>
       </c>
       <c r="B493" t="s">
@@ -7891,7 +7901,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494">
+      <c r="A494" s="5">
         <v>17352</v>
       </c>
       <c r="B494" t="s">
@@ -7902,7 +7912,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495">
+      <c r="A495" s="5">
         <v>17360</v>
       </c>
       <c r="B495" t="s">
@@ -7913,7 +7923,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496">
+      <c r="A496" s="5">
         <v>17364</v>
       </c>
       <c r="B496" t="s">
@@ -7924,7 +7934,7 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497">
+      <c r="A497" s="5">
         <v>17368</v>
       </c>
       <c r="B497" t="s">
@@ -7935,7 +7945,7 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498">
+      <c r="A498" s="5">
         <v>17342</v>
       </c>
       <c r="B498" t="s">
@@ -7946,7 +7956,7 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499">
+      <c r="A499" s="5">
         <v>17346</v>
       </c>
       <c r="B499" t="s">
@@ -7957,7 +7967,7 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500">
+      <c r="A500" s="5">
         <v>17350</v>
       </c>
       <c r="B500" t="s">
@@ -7968,7 +7978,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501">
+      <c r="A501" s="5">
         <v>17354</v>
       </c>
       <c r="B501" t="s">
@@ -7979,7 +7989,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502">
+      <c r="A502" s="5">
         <v>17358</v>
       </c>
       <c r="B502" t="s">
@@ -7990,7 +8000,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503">
+      <c r="A503" s="5">
         <v>17362</v>
       </c>
       <c r="B503" t="s">
@@ -8001,7 +8011,7 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504">
+      <c r="A504" s="5">
         <v>17366</v>
       </c>
       <c r="B504" t="s">
@@ -8012,7 +8022,7 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505">
+      <c r="A505" s="5">
         <v>17382</v>
       </c>
       <c r="B505" t="s">
@@ -8023,7 +8033,7 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506">
+      <c r="A506" s="5">
         <v>17412</v>
       </c>
       <c r="B506" t="s">
@@ -8034,7 +8044,7 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507">
+      <c r="A507" s="5">
         <v>17434</v>
       </c>
       <c r="B507" t="s">
@@ -8045,7 +8055,7 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508">
+      <c r="A508" s="5">
         <v>17438</v>
       </c>
       <c r="B508" t="s">
@@ -8056,7 +8066,7 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509">
+      <c r="A509" s="5">
         <v>17455</v>
       </c>
       <c r="B509" t="s">
@@ -8067,7 +8077,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510">
+      <c r="A510" s="5">
         <v>17475</v>
       </c>
       <c r="B510" t="s">
@@ -8078,7 +8088,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511">
+      <c r="A511" s="5">
         <v>17492</v>
       </c>
       <c r="B511" t="s">
@@ -8089,7 +8099,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512">
+      <c r="A512" s="5">
         <v>18010</v>
       </c>
       <c r="B512" t="s">
@@ -8100,7 +8110,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513">
+      <c r="A513" s="5">
         <v>18012</v>
       </c>
       <c r="B513" t="s">
@@ -8111,7 +8121,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514">
+      <c r="A514" s="5">
         <v>18020</v>
       </c>
       <c r="B514" t="s">
@@ -8122,7 +8132,7 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515">
+      <c r="A515" s="5">
         <v>18025</v>
       </c>
       <c r="B515" t="s">
@@ -8133,7 +8143,7 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516">
+      <c r="A516" s="5">
         <v>18030</v>
       </c>
       <c r="B516" t="s">
@@ -8144,7 +8154,7 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517">
+      <c r="A517" s="5">
         <v>18040</v>
       </c>
       <c r="B517" t="s">
@@ -8155,7 +8165,7 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518">
+      <c r="A518" s="5">
         <v>18050</v>
       </c>
       <c r="B518" t="s">
@@ -8166,7 +8176,7 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519">
+      <c r="A519" s="5">
         <v>18060</v>
       </c>
       <c r="B519" t="s">
@@ -8177,7 +8187,7 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520">
+      <c r="A520" s="5">
         <v>18070</v>
       </c>
       <c r="B520" t="s">
@@ -8188,7 +8198,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521">
+      <c r="A521" s="5">
         <v>18080</v>
       </c>
       <c r="B521" t="s">
@@ -8199,7 +8209,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522">
+      <c r="A522" s="5">
         <v>18090</v>
       </c>
       <c r="B522" t="s">
@@ -8210,7 +8220,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523">
+      <c r="A523" s="5">
         <v>18100</v>
       </c>
       <c r="B523" t="s">
@@ -8221,7 +8231,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524">
+      <c r="A524" s="5">
         <v>18104</v>
       </c>
       <c r="B524" t="s">
@@ -8232,7 +8242,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525">
+      <c r="A525" s="5">
         <v>18106</v>
       </c>
       <c r="B525" t="s">
@@ -8243,7 +8253,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526">
+      <c r="A526" s="5">
         <v>18110</v>
       </c>
       <c r="B526" t="s">
@@ -8254,7 +8264,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527">
+      <c r="A527" s="5">
         <v>18112</v>
       </c>
       <c r="B527" t="s">
@@ -8265,7 +8275,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528">
+      <c r="A528" s="5">
         <v>18114</v>
       </c>
       <c r="B528" t="s">
@@ -8276,7 +8286,7 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529">
+      <c r="A529" s="5">
         <v>18120</v>
       </c>
       <c r="B529" t="s">
@@ -8287,7 +8297,7 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530">
+      <c r="A530" s="5">
         <v>18130</v>
       </c>
       <c r="B530" t="s">
@@ -8298,7 +8308,7 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531">
+      <c r="A531" s="5">
         <v>18132</v>
       </c>
       <c r="B531" t="s">
@@ -8309,7 +8319,7 @@
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532">
+      <c r="A532" s="5">
         <v>18140</v>
       </c>
       <c r="B532" t="s">
@@ -8320,7 +8330,7 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533">
+      <c r="A533" s="5">
         <v>18142</v>
       </c>
       <c r="B533" t="s">
@@ -8331,7 +8341,7 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534">
+      <c r="A534" s="5">
         <v>18150</v>
       </c>
       <c r="B534" t="s">
@@ -8342,7 +8352,7 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535">
+      <c r="A535" s="5">
         <v>18160</v>
       </c>
       <c r="B535" t="s">
@@ -8353,7 +8363,7 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536">
+      <c r="A536" s="5">
         <v>18180</v>
       </c>
       <c r="B536" t="s">
@@ -8364,7 +8374,7 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537">
+      <c r="A537" s="5">
         <v>18190</v>
       </c>
       <c r="B537" t="s">
@@ -8375,7 +8385,7 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538">
+      <c r="A538" s="5">
         <v>18200</v>
       </c>
       <c r="B538" t="s">
@@ -8386,7 +8396,7 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539">
+      <c r="A539" s="5">
         <v>18202</v>
       </c>
       <c r="B539" t="s">
@@ -8397,7 +8407,7 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540">
+      <c r="A540" s="5">
         <v>18204</v>
       </c>
       <c r="B540" t="s">
@@ -8408,7 +8418,7 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541">
+      <c r="A541" s="5">
         <v>18206</v>
       </c>
       <c r="B541" t="s">
@@ -8419,7 +8429,7 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542">
+      <c r="A542" s="5">
         <v>18202</v>
       </c>
       <c r="B542" t="s">
@@ -8430,7 +8440,7 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543">
+      <c r="A543" s="5">
         <v>18210</v>
       </c>
       <c r="B543" t="s">
@@ -8441,7 +8451,7 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544">
+      <c r="A544" s="5">
         <v>18220</v>
       </c>
       <c r="B544" t="s">
@@ -8452,7 +8462,7 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545">
+      <c r="A545" s="5">
         <v>18221</v>
       </c>
       <c r="B545" t="s">
@@ -8463,7 +8473,7 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546">
+      <c r="A546" s="5">
         <v>18222</v>
       </c>
       <c r="B546" t="s">
@@ -8474,7 +8484,7 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547">
+      <c r="A547" s="5">
         <v>18224</v>
       </c>
       <c r="B547" t="s">
@@ -8485,7 +8495,7 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548">
+      <c r="A548" s="5">
         <v>18225</v>
       </c>
       <c r="B548" t="s">
@@ -8496,7 +8506,7 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549">
+      <c r="A549" s="5">
         <v>18226</v>
       </c>
       <c r="B549" t="s">
@@ -8507,7 +8517,7 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550">
+      <c r="A550" s="5">
         <v>18227</v>
       </c>
       <c r="B550" t="s">
@@ -8518,7 +8528,7 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551">
+      <c r="A551" s="5">
         <v>18228</v>
       </c>
       <c r="B551" t="s">
@@ -8529,7 +8539,7 @@
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552">
+      <c r="A552" s="5">
         <v>18229</v>
       </c>
       <c r="B552" t="s">
@@ -8540,7 +8550,7 @@
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A553">
+      <c r="A553" s="5">
         <v>18230</v>
       </c>
       <c r="B553" t="s">
@@ -8551,7 +8561,7 @@
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A554">
+      <c r="A554" s="5">
         <v>18240</v>
       </c>
       <c r="B554" t="s">
@@ -8562,7 +8572,7 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555">
+      <c r="A555" s="5">
         <v>18250</v>
       </c>
       <c r="B555" t="s">
@@ -8573,7 +8583,7 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556">
+      <c r="A556" s="5">
         <v>18255</v>
       </c>
       <c r="B556" t="s">
@@ -8584,7 +8594,7 @@
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A557">
+      <c r="A557" s="5">
         <v>18260</v>
       </c>
       <c r="B557" t="s">
@@ -8595,7 +8605,7 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558">
+      <c r="A558" s="5">
         <v>18265</v>
       </c>
       <c r="B558" t="s">
@@ -8606,7 +8616,7 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559">
+      <c r="A559" s="5">
         <v>18270</v>
       </c>
       <c r="B559" t="s">
@@ -8617,7 +8627,7 @@
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A560">
+      <c r="A560" s="5">
         <v>18280</v>
       </c>
       <c r="B560" t="s">
@@ -8628,7 +8638,7 @@
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A561">
+      <c r="A561" s="5">
         <v>18285</v>
       </c>
       <c r="B561" t="s">
@@ -8639,7 +8649,7 @@
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A562">
+      <c r="A562" s="5">
         <v>18290</v>
       </c>
       <c r="B562" t="s">
@@ -8650,7 +8660,7 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A563">
+      <c r="A563" s="5">
         <v>18292</v>
       </c>
       <c r="B563" t="s">
@@ -8661,7 +8671,7 @@
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A564">
+      <c r="A564" s="5">
         <v>18294</v>
       </c>
       <c r="B564" t="s">
@@ -8672,7 +8682,7 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A565">
+      <c r="A565" s="5">
         <v>18300</v>
       </c>
       <c r="B565" t="s">
@@ -8683,7 +8693,7 @@
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A566">
+      <c r="A566" s="5">
         <v>18310</v>
       </c>
       <c r="B566" t="s">
@@ -8694,7 +8704,7 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A567">
+      <c r="A567" s="5">
         <v>18320</v>
       </c>
       <c r="B567" t="s">
@@ -8705,7 +8715,7 @@
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A568">
+      <c r="A568" s="5">
         <v>18330</v>
       </c>
       <c r="B568" t="s">
@@ -8716,7 +8726,7 @@
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A569">
+      <c r="A569" s="5">
         <v>18340</v>
       </c>
       <c r="B569" t="s">
@@ -8727,7 +8737,7 @@
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A570">
+      <c r="A570" s="5">
         <v>18350</v>
       </c>
       <c r="B570" t="s">
@@ -8738,7 +8748,7 @@
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A571">
+      <c r="A571" s="5">
         <v>18352</v>
       </c>
       <c r="B571" t="s">
@@ -8749,7 +8759,7 @@
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A572">
+      <c r="A572" s="5">
         <v>18355</v>
       </c>
       <c r="B572" t="s">
@@ -8760,7 +8770,7 @@
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A573">
+      <c r="A573" s="5">
         <v>18356</v>
       </c>
       <c r="B573" t="s">
@@ -8771,7 +8781,7 @@
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A574">
+      <c r="A574" s="5">
         <v>18358</v>
       </c>
       <c r="B574" t="s">
@@ -8782,7 +8792,7 @@
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A575">
+      <c r="A575" s="5">
         <v>18360</v>
       </c>
       <c r="B575" t="s">
@@ -8793,7 +8803,7 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A576">
+      <c r="A576" s="5">
         <v>18365</v>
       </c>
       <c r="B576" t="s">
@@ -8804,7 +8814,7 @@
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A577">
+      <c r="A577" s="5">
         <v>18366</v>
       </c>
       <c r="B577" t="s">
@@ -8815,7 +8825,7 @@
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A578">
+      <c r="A578" s="5">
         <v>18367</v>
       </c>
       <c r="B578" t="s">
@@ -8826,7 +8836,7 @@
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A579">
+      <c r="A579" s="5">
         <v>18368</v>
       </c>
       <c r="B579" t="s">
@@ -8837,7 +8847,7 @@
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A580">
+      <c r="A580" s="5">
         <v>18369</v>
       </c>
       <c r="B580" t="s">
@@ -8848,7 +8858,7 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A581">
+      <c r="A581" s="5">
         <v>18370</v>
       </c>
       <c r="B581" t="s">
@@ -8859,7 +8869,7 @@
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A582">
+      <c r="A582" s="5">
         <v>18374</v>
       </c>
       <c r="B582" t="s">
@@ -8870,7 +8880,7 @@
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A583">
+      <c r="A583" s="5">
         <v>18375</v>
       </c>
       <c r="B583" t="s">
@@ -8881,7 +8891,7 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A584">
+      <c r="A584" s="5">
         <v>18376</v>
       </c>
       <c r="B584" t="s">
@@ -8892,7 +8902,7 @@
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A585">
+      <c r="A585" s="5">
         <v>18377</v>
       </c>
       <c r="B585" t="s">
@@ -8903,7 +8913,7 @@
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A586">
+      <c r="A586" s="5">
         <v>18380</v>
       </c>
       <c r="B586" t="s">
@@ -8914,7 +8924,7 @@
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A587">
+      <c r="A587" s="5">
         <v>18385</v>
       </c>
       <c r="B587" t="s">
@@ -8925,7 +8935,7 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A588">
+      <c r="A588" s="5">
         <v>18390</v>
       </c>
       <c r="B588" t="s">
@@ -8936,7 +8946,7 @@
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A589">
+      <c r="A589" s="5">
         <v>18404</v>
       </c>
       <c r="B589" t="s">
@@ -8947,7 +8957,7 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A590">
+      <c r="A590" s="5">
         <v>18408</v>
       </c>
       <c r="B590" t="s">
@@ -8958,7 +8968,7 @@
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A591">
+      <c r="A591" s="5">
         <v>18412</v>
       </c>
       <c r="B591" t="s">
@@ -8969,7 +8979,7 @@
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A592">
+      <c r="A592" s="5">
         <v>18416</v>
       </c>
       <c r="B592" t="s">
@@ -8980,7 +8990,7 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A593">
+      <c r="A593" s="5">
         <v>18420</v>
       </c>
       <c r="B593" t="s">
@@ -8991,7 +9001,7 @@
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A594">
+      <c r="A594" s="5">
         <v>18424</v>
       </c>
       <c r="B594" t="s">
@@ -9002,7 +9012,7 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A595">
+      <c r="A595" s="5">
         <v>18428</v>
       </c>
       <c r="B595" t="s">
@@ -9013,7 +9023,7 @@
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A596">
+      <c r="A596" s="5">
         <v>18432</v>
       </c>
       <c r="B596" t="s">
@@ -9024,7 +9034,7 @@
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A597">
+      <c r="A597" s="5">
         <v>18436</v>
       </c>
       <c r="B597" t="s">
@@ -9035,7 +9045,7 @@
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A598">
+      <c r="A598" s="5">
         <v>18440</v>
       </c>
       <c r="B598" t="s">
@@ -9046,7 +9056,7 @@
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A599">
+      <c r="A599" s="5">
         <v>19005</v>
       </c>
       <c r="B599" t="s">
@@ -9057,7 +9067,7 @@
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A600">
+      <c r="A600" s="5">
         <v>19006</v>
       </c>
       <c r="B600" t="s">
@@ -9068,7 +9078,7 @@
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A601">
+      <c r="A601" s="5">
         <v>19010</v>
       </c>
       <c r="B601" t="s">
@@ -9079,7 +9089,7 @@
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A602">
+      <c r="A602" s="5">
         <v>19011</v>
       </c>
       <c r="B602" t="s">
@@ -9090,7 +9100,7 @@
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A603">
+      <c r="A603" s="5">
         <v>19018</v>
       </c>
       <c r="B603" t="s">
@@ -9101,7 +9111,7 @@
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A604">
+      <c r="A604" s="5">
         <v>19020</v>
       </c>
       <c r="B604" t="s">
@@ -9112,7 +9122,7 @@
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A605">
+      <c r="A605" s="5">
         <v>19030</v>
       </c>
       <c r="B605" t="s">
@@ -9123,7 +9133,7 @@
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A606">
+      <c r="A606" s="5">
         <v>19040</v>
       </c>
       <c r="B606" t="s">
@@ -9134,7 +9144,7 @@
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A607">
+      <c r="A607" s="5">
         <v>19045</v>
       </c>
       <c r="B607" t="s">
@@ -9145,7 +9155,7 @@
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A608">
+      <c r="A608" s="5">
         <v>19046</v>
       </c>
       <c r="B608" t="s">
@@ -9156,7 +9166,7 @@
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A609">
+      <c r="A609" s="5">
         <v>19047</v>
       </c>
       <c r="B609" t="s">
@@ -9167,7 +9177,7 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A610">
+      <c r="A610" s="5">
         <v>19048</v>
       </c>
       <c r="B610" t="s">
@@ -9178,7 +9188,7 @@
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A611">
+      <c r="A611" s="5">
         <v>19050</v>
       </c>
       <c r="B611" t="s">
@@ -9189,7 +9199,7 @@
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A612">
+      <c r="A612" s="5">
         <v>19060</v>
       </c>
       <c r="B612" t="s">
@@ -9200,7 +9210,7 @@
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A613">
+      <c r="A613" s="5">
         <v>19075</v>
       </c>
       <c r="B613" t="s">
@@ -9211,7 +9221,7 @@
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A614">
+      <c r="A614" s="5">
         <v>19080</v>
       </c>
       <c r="B614" t="s">
@@ -9222,7 +9232,7 @@
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A615">
+      <c r="A615" s="5">
         <v>19090</v>
       </c>
       <c r="B615" t="s">
@@ -9233,7 +9243,7 @@
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A616">
+      <c r="A616" s="5">
         <v>19100</v>
       </c>
       <c r="B616" t="s">
@@ -9244,7 +9254,7 @@
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A617">
+      <c r="A617" s="5">
         <v>19110</v>
       </c>
       <c r="B617" t="s">
@@ -9255,7 +9265,7 @@
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A618">
+      <c r="A618" s="5">
         <v>19112</v>
       </c>
       <c r="B618" t="s">
@@ -9266,7 +9276,7 @@
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A619">
+      <c r="A619" s="5">
         <v>19115</v>
       </c>
       <c r="B619" t="s">
@@ -9277,7 +9287,7 @@
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A620">
+      <c r="A620" s="5">
         <v>19130</v>
       </c>
       <c r="B620" t="s">
@@ -9288,7 +9298,7 @@
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A621">
+      <c r="A621" s="5">
         <v>19135</v>
       </c>
       <c r="B621" t="s">
@@ -9299,7 +9309,7 @@
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A622">
+      <c r="A622" s="5">
         <v>19140</v>
       </c>
       <c r="B622" t="s">
@@ -9310,7 +9320,7 @@
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A623">
+      <c r="A623" s="5">
         <v>19142</v>
       </c>
       <c r="B623" t="s">
@@ -9321,7 +9331,7 @@
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A624">
+      <c r="A624" s="5">
         <v>19144</v>
       </c>
       <c r="B624" t="s">
@@ -9332,7 +9342,7 @@
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A625">
+      <c r="A625" s="5">
         <v>19146</v>
       </c>
       <c r="B625" t="s">
@@ -9343,7 +9353,7 @@
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A626">
+      <c r="A626" s="5">
         <v>19150</v>
       </c>
       <c r="B626" t="s">
@@ -9354,7 +9364,7 @@
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A627">
+      <c r="A627" s="5">
         <v>19160</v>
       </c>
       <c r="B627" t="s">
@@ -9365,7 +9375,7 @@
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A628">
+      <c r="A628" s="5">
         <v>19170</v>
       </c>
       <c r="B628" t="s">
@@ -9376,7 +9386,7 @@
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A629">
+      <c r="A629" s="5">
         <v>19174</v>
       </c>
       <c r="B629" t="s">
@@ -9387,7 +9397,7 @@
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A630">
+      <c r="A630" s="5">
         <v>19180</v>
       </c>
       <c r="B630" t="s">
@@ -9398,7 +9408,7 @@
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A631">
+      <c r="A631" s="5">
         <v>19190</v>
       </c>
       <c r="B631" t="s">
@@ -9409,7 +9419,7 @@
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A632">
+      <c r="A632" s="5">
         <v>19192</v>
       </c>
       <c r="B632" t="s">
@@ -9420,7 +9430,7 @@
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A633">
+      <c r="A633" s="5">
         <v>19200</v>
       </c>
       <c r="B633" t="s">
@@ -9431,7 +9441,7 @@
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A634">
+      <c r="A634" s="5">
         <v>19201</v>
       </c>
       <c r="B634" t="s">
@@ -9442,7 +9452,7 @@
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A635">
+      <c r="A635" s="5">
         <v>19202</v>
       </c>
       <c r="B635" t="s">
@@ -9453,7 +9463,7 @@
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A636">
+      <c r="A636" s="5">
         <v>19252</v>
       </c>
       <c r="B636" t="s">
@@ -9464,7 +9474,7 @@
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A637">
+      <c r="A637" s="5">
         <v>19254</v>
       </c>
       <c r="B637" t="s">
@@ -9475,7 +9485,7 @@
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A638">
+      <c r="A638" s="5">
         <v>19260</v>
       </c>
       <c r="B638" t="s">
@@ -9486,7 +9496,7 @@
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A639">
+      <c r="A639" s="5">
         <v>19300</v>
       </c>
       <c r="B639" t="s">
@@ -9497,7 +9507,7 @@
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A640">
+      <c r="A640" s="5">
         <v>19305</v>
       </c>
       <c r="B640" t="s">
@@ -9508,7 +9518,7 @@
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A641">
+      <c r="A641" s="5">
         <v>19310</v>
       </c>
       <c r="B641" t="s">
@@ -9519,7 +9529,7 @@
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A642">
+      <c r="A642" s="5">
         <v>19315</v>
       </c>
       <c r="B642" t="s">
@@ -9530,7 +9540,7 @@
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A643">
+      <c r="A643" s="5">
         <v>19320</v>
       </c>
       <c r="B643" t="s">
@@ -9541,7 +9551,7 @@
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A644">
+      <c r="A644" s="5">
         <v>19325</v>
       </c>
       <c r="B644" t="s">
@@ -9552,7 +9562,7 @@
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A645">
+      <c r="A645" s="5">
         <v>19330</v>
       </c>
       <c r="B645" t="s">
@@ -9563,7 +9573,7 @@
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A646">
+      <c r="A646" s="5">
         <v>19335</v>
       </c>
       <c r="B646" t="s">
@@ -9574,7 +9584,7 @@
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A647">
+      <c r="A647" s="5">
         <v>19340</v>
       </c>
       <c r="B647" t="s">
@@ -9585,7 +9595,7 @@
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A648">
+      <c r="A648" s="5">
         <v>19345</v>
       </c>
       <c r="B648" t="s">
@@ -9596,7 +9606,7 @@
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A649">
+      <c r="A649" s="5">
         <v>19400</v>
       </c>
       <c r="B649" t="s">
@@ -9607,7 +9617,7 @@
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A650">
+      <c r="A650" s="5">
         <v>19405</v>
       </c>
       <c r="B650" t="s">
@@ -9618,7 +9628,7 @@
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A651">
+      <c r="A651" s="5">
         <v>185</v>
       </c>
       <c r="B651" t="s">
@@ -9629,7 +9639,7 @@
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A652">
+      <c r="A652" s="5">
         <v>186</v>
       </c>
       <c r="B652" t="s">
@@ -9640,7 +9650,7 @@
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A653">
+      <c r="A653" s="5">
         <v>187</v>
       </c>
       <c r="B653" t="s">
@@ -9651,7 +9661,7 @@
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A654">
+      <c r="A654" s="5">
         <v>188</v>
       </c>
       <c r="B654" t="s">
@@ -9662,7 +9672,7 @@
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A655">
+      <c r="A655" s="5">
         <v>189</v>
       </c>
       <c r="B655" t="s">
@@ -9673,7 +9683,7 @@
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A656">
+      <c r="A656" s="5">
         <v>190</v>
       </c>
       <c r="B656" t="s">
@@ -9684,7 +9694,7 @@
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A657">
+      <c r="A657" s="5">
         <v>191</v>
       </c>
       <c r="B657" t="s">
@@ -9695,7 +9705,7 @@
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A658">
+      <c r="A658" s="5">
         <v>192</v>
       </c>
       <c r="B658" t="s">
@@ -9706,7 +9716,7 @@
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A659">
+      <c r="A659" s="5">
         <v>193</v>
       </c>
       <c r="B659" t="s">
@@ -9717,7 +9727,7 @@
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A660">
+      <c r="A660" s="5">
         <v>194</v>
       </c>
       <c r="B660" t="s">
@@ -9728,7 +9738,7 @@
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A661">
+      <c r="A661" s="5">
         <v>195</v>
       </c>
       <c r="B661" t="s">
@@ -9739,7 +9749,7 @@
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A662">
+      <c r="A662" s="5">
         <v>196</v>
       </c>
       <c r="B662" t="s">
@@ -9750,7 +9760,7 @@
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A663">
+      <c r="A663" s="5">
         <v>197</v>
       </c>
       <c r="B663" t="s">
@@ -9761,7 +9771,7 @@
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A664">
+      <c r="A664" s="5">
         <v>198</v>
       </c>
       <c r="B664" t="s">
@@ -9772,7 +9782,7 @@
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A665">
+      <c r="A665" s="5">
         <v>199</v>
       </c>
       <c r="B665" t="s">
@@ -9783,7 +9793,7 @@
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A666">
+      <c r="A666" s="5">
         <v>200</v>
       </c>
       <c r="B666" t="s">
@@ -9794,7 +9804,7 @@
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A667">
+      <c r="A667" s="5">
         <v>201</v>
       </c>
       <c r="B667" t="s">
@@ -9805,7 +9815,7 @@
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A668">
+      <c r="A668" s="5">
         <v>202</v>
       </c>
       <c r="B668" t="s">
@@ -9816,7 +9826,7 @@
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A669">
+      <c r="A669" s="5">
         <v>203</v>
       </c>
       <c r="B669" t="s">
@@ -9827,7 +9837,7 @@
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A670">
+      <c r="A670" s="5">
         <v>204</v>
       </c>
       <c r="B670" t="s">
@@ -9838,7 +9848,7 @@
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A671">
+      <c r="A671" s="5">
         <v>205</v>
       </c>
       <c r="B671" t="s">
@@ -9849,7 +9859,7 @@
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A672">
+      <c r="A672" s="5">
         <v>206</v>
       </c>
       <c r="B672" t="s">
@@ -9860,7 +9870,7 @@
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A673">
+      <c r="A673" s="5">
         <v>207</v>
       </c>
       <c r="B673" t="s">
@@ -9871,7 +9881,7 @@
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A674">
+      <c r="A674" s="5">
         <v>208</v>
       </c>
       <c r="B674" t="s">
@@ -9882,7 +9892,7 @@
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A675">
+      <c r="A675" s="5">
         <v>209</v>
       </c>
       <c r="B675" t="s">
@@ -9893,7 +9903,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
